--- a/fotoleuToolbox.xlsx
+++ b/fotoleuToolbox.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA272C-6AF0-4B73-B36C-0F19A77CB468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C33930-41B2-4285-921D-435D25854740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="310">
   <si>
     <t>Empfangsschein</t>
   </si>
@@ -1073,6 +1073,15 @@
   </si>
   <si>
     <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\doc4.docx at 04.01.2021 18:25:39</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\doc3.docx at 04.01.2021 19:49:45</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp at 04.01.2021 19:49:47</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\doc4.docx at 04.01.2021 19:49:53</t>
   </si>
 </sst>
 </file>
@@ -18354,7 +18363,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C13067-15AF-4F78-98EF-8797820B2B84}">
-  <dimension ref="A2:H125"/>
+  <dimension ref="A2:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -18444,7 +18453,7 @@
     </row>
     <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -18456,7 +18465,7 @@
     </row>
     <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>35</v>
@@ -18478,7 +18487,7 @@
     </row>
     <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -18490,7 +18499,7 @@
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -18502,7 +18511,7 @@
     </row>
     <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>35</v>
@@ -18524,7 +18533,7 @@
     </row>
     <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -18534,9 +18543,9 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -18548,7 +18557,7 @@
     </row>
     <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>35</v>
@@ -18568,9 +18577,9 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -18582,7 +18591,7 @@
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -18594,7 +18603,7 @@
     </row>
     <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>35</v>
@@ -18616,7 +18625,7 @@
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -18628,7 +18637,7 @@
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -18640,7 +18649,7 @@
     </row>
     <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>35</v>
@@ -18662,7 +18671,7 @@
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -18674,7 +18683,7 @@
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -18684,43 +18693,43 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
-    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+        <v>293</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -18730,9 +18739,9 @@
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -18744,7 +18753,7 @@
     </row>
     <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>35</v>
@@ -18764,9 +18773,9 @@
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -18776,9 +18785,9 @@
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -18790,7 +18799,7 @@
     </row>
     <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>35</v>
@@ -18810,9 +18819,9 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -18824,7 +18833,7 @@
     </row>
     <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -18836,7 +18845,7 @@
     </row>
     <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>35</v>
@@ -18858,7 +18867,7 @@
     </row>
     <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -18870,7 +18879,7 @@
     </row>
     <row r="48" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -18882,7 +18891,7 @@
     </row>
     <row r="49" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>35</v>
@@ -18904,7 +18913,7 @@
     </row>
     <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -18916,7 +18925,7 @@
     </row>
     <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -18928,7 +18937,7 @@
     </row>
     <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>35</v>
@@ -18950,7 +18959,7 @@
     </row>
     <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -18962,7 +18971,7 @@
     </row>
     <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -18974,7 +18983,7 @@
     </row>
     <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>35</v>
@@ -18996,7 +19005,7 @@
     </row>
     <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -19008,7 +19017,7 @@
     </row>
     <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -19020,7 +19029,7 @@
     </row>
     <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>35</v>
@@ -19042,7 +19051,7 @@
     </row>
     <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -19052,9 +19061,9 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -19064,43 +19073,43 @@
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+        <v>268</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
     </row>
-    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -19110,9 +19119,9 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
     </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -19124,7 +19133,7 @@
     </row>
     <row r="65" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>35</v>
@@ -19144,9 +19153,9 @@
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -19156,9 +19165,9 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -19168,43 +19177,43 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+        <v>261</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
     </row>
-    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
     </row>
-    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -19214,9 +19223,9 @@
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -19226,43 +19235,43 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+        <v>257</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
     </row>
-    <row r="73" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
     </row>
-    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -19274,7 +19283,7 @@
     </row>
     <row r="75" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -19286,7 +19295,7 @@
     </row>
     <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>35</v>
@@ -19306,9 +19315,9 @@
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
     </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -19318,9 +19327,9 @@
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
     </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -19332,7 +19341,7 @@
     </row>
     <row r="79" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>35</v>
@@ -19354,7 +19363,7 @@
     </row>
     <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -19366,7 +19375,7 @@
     </row>
     <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -19378,7 +19387,7 @@
     </row>
     <row r="82" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>35</v>
@@ -19400,7 +19409,7 @@
     </row>
     <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -19410,31 +19419,21 @@
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
     </row>
-    <row r="84" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
     </row>
     <row r="85" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>35</v>
@@ -19454,31 +19453,21 @@
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
     </row>
-    <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
     </row>
     <row r="87" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>35</v>
@@ -19498,21 +19487,31 @@
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
     </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
     </row>
     <row r="89" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>35</v>
@@ -19532,21 +19531,31 @@
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
     </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
     </row>
     <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -19556,21 +19565,31 @@
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
     </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
+        <v>231</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
     </row>
     <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -19582,7 +19601,7 @@
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -19592,9 +19611,9 @@
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
     </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -19604,9 +19623,9 @@
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -19616,75 +19635,45 @@
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
     </row>
-    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F97" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
     </row>
-    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F99" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>35</v>
@@ -19706,7 +19695,7 @@
     </row>
     <row r="101" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>35</v>
@@ -19728,7 +19717,7 @@
     </row>
     <row r="102" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B102" s="22" t="s">
         <v>35</v>
@@ -19750,7 +19739,7 @@
     </row>
     <row r="103" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B103" s="22" t="s">
         <v>35</v>
@@ -19772,7 +19761,7 @@
     </row>
     <row r="104" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B104" s="22" t="s">
         <v>35</v>
@@ -19794,7 +19783,7 @@
     </row>
     <row r="105" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B105" s="22" t="s">
         <v>35</v>
@@ -19816,7 +19805,7 @@
     </row>
     <row r="106" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>35</v>
@@ -19838,7 +19827,7 @@
     </row>
     <row r="107" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B107" s="22" t="s">
         <v>35</v>
@@ -19860,7 +19849,7 @@
     </row>
     <row r="108" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B108" s="22" t="s">
         <v>35</v>
@@ -19882,7 +19871,7 @@
     </row>
     <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B109" s="22" t="s">
         <v>35</v>
@@ -19904,7 +19893,7 @@
     </row>
     <row r="110" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B110" s="22" t="s">
         <v>35</v>
@@ -19926,7 +19915,7 @@
     </row>
     <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B111" s="22" t="s">
         <v>35</v>
@@ -19948,7 +19937,7 @@
     </row>
     <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>35</v>
@@ -19960,7 +19949,7 @@
         <v>49</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F112" s="22" t="s">
         <v>45</v>
@@ -19970,7 +19959,7 @@
     </row>
     <row r="113" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>35</v>
@@ -19982,7 +19971,7 @@
         <v>49</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F113" s="22" t="s">
         <v>45</v>
@@ -19992,7 +19981,7 @@
     </row>
     <row r="114" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>35</v>
@@ -20004,7 +19993,7 @@
         <v>49</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F114" s="22" t="s">
         <v>45</v>
@@ -20014,7 +20003,7 @@
     </row>
     <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>35</v>
@@ -20022,13 +20011,13 @@
       <c r="C115" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="D115" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F115" s="21" t="s">
+      <c r="E115" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G115" s="21"/>
@@ -20036,7 +20025,7 @@
     </row>
     <row r="116" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>35</v>
@@ -20044,13 +20033,13 @@
       <c r="C116" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E116" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F116" s="21" t="s">
+      <c r="E116" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G116" s="21"/>
@@ -20058,7 +20047,7 @@
     </row>
     <row r="117" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>35</v>
@@ -20066,13 +20055,13 @@
       <c r="C117" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F117" s="21" t="s">
+      <c r="E117" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G117" s="21"/>
@@ -20080,7 +20069,7 @@
     </row>
     <row r="118" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>35</v>
@@ -20102,7 +20091,7 @@
     </row>
     <row r="119" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B119" s="22" t="s">
         <v>35</v>
@@ -20124,7 +20113,7 @@
     </row>
     <row r="120" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>35</v>
@@ -20146,7 +20135,7 @@
     </row>
     <row r="121" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B121" s="22" t="s">
         <v>35</v>
@@ -20155,7 +20144,7 @@
         <v>36</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>44</v>
@@ -20168,7 +20157,7 @@
     </row>
     <row r="122" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>35</v>
@@ -20176,27 +20165,43 @@
       <c r="C122" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
+      <c r="D122" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="G123" s="21"/>
       <c r="H123" s="21"/>
     </row>
     <row r="124" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>35</v>
@@ -20204,14 +20209,64 @@
       <c r="C124" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
+      <c r="D124" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+    <row r="125" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+    </row>
+    <row r="127" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
         <v>32</v>
       </c>
     </row>

--- a/fotoleuToolbox.xlsx
+++ b/fotoleuToolbox.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C33930-41B2-4285-921D-435D25854740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34231BBD-7C79-432D-9E54-03EE706AF714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwissQRCode (old)" sheetId="3" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="332">
   <si>
     <t>Empfangsschein</t>
   </si>
@@ -1082,6 +1082,72 @@
   </si>
   <si>
     <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\doc4.docx at 04.01.2021 19:49:53</t>
+  </si>
+  <si>
+    <t>Muster</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Erliweg 99a</t>
+  </si>
+  <si>
+    <t>Steinhausen</t>
+  </si>
+  <si>
+    <t>fritz.peter@mymail.com</t>
+  </si>
+  <si>
+    <t>+41 79 999 888 77</t>
+  </si>
+  <si>
+    <t>KF0999</t>
+  </si>
+  <si>
+    <t>Erliweg 999a</t>
+  </si>
+  <si>
+    <t>fritz.pter@mymail.com</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_e8b05e9c-b666-408e-92bb-d56b72753ef0.docx at 05.01.2021 12:02:10</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp at 05.01.2021 12:02:11</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_e8b05e9c-b666-408e-92bb-d56b72753ef0.docx at 05.01.2021 12:02:17</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_a0f85db4-93e9-4a7f-b16a-8ae8abb5c2f9.docx at 05.01.2021 12:04:42</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp at 05.01.2021 12:04:43</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_a0f85db4-93e9-4a7f-b16a-8ae8abb5c2f9.docx at 05.01.2021 12:04:49</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_c5f31efd-48f4-4f48-b552-4fbf0f481045.docx at 05.01.2021 12:06:07</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp at 05.01.2021 12:06:08</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_c5f31efd-48f4-4f48-b552-4fbf0f481045.docx at 05.01.2021 12:06:15</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_faa69c1c-7cba-49e3-a353-ee0540f884c6.docx at 05.01.2021 12:15:31</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp at 05.01.2021 12:15:33</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_faa69c1c-7cba-49e3-a353-ee0540f884c6.docx at 05.01.2021 12:15:39</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1396,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1419,13 +1485,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -2708,34 +2775,9 @@
             <v>Bösch 63</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>6331 Hünenberg</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>AF1571 / KF0182 / ES=1353</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Moresi Aurelia</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Rigiweg 19a</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>5643  Sins</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>230</v>
           </cell>
         </row>
       </sheetData>
@@ -16816,8 +16858,8 @@
   </sheetPr>
   <dimension ref="B2:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16924,33 +16966,26 @@
         <f t="array" ref="E12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Kunden ID (lang)],$E$13,1),"n/a")</f>
         <v>(KF0182) Moresi Aurelia</v>
       </c>
-      <c r="F12" s="33" t="str" cm="1">
-        <f t="array" ref="F12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Name],$E$13,1),"n/a")</f>
-        <v>Moresi</v>
-      </c>
-      <c r="G12" s="33" t="str" cm="1">
-        <f t="array" ref="G12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Vorname],$E$13,1),"n/a")</f>
-        <v>Aurelia</v>
-      </c>
-      <c r="H12" s="33" t="str" cm="1">
-        <f t="array" ref="H12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Adresse],$E$13,1),"n/a")</f>
-        <v>Rigiweg 19a</v>
-      </c>
-      <c r="I12" s="33" t="str" cm="1">
-        <f t="array" ref="I12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[PLZ],$E$13,1),"n/a")</f>
-        <v xml:space="preserve">5643 </v>
-      </c>
-      <c r="J12" s="33" t="str" cm="1">
-        <f t="array" ref="J12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Ort],$E$13,1),"n/a")</f>
-        <v>Sins</v>
-      </c>
-      <c r="K12" s="33" t="str" cm="1">
-        <f t="array" ref="K12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Mailadresse],$E$13,1),"n/a")</f>
-        <v>aurelia.moresi@gmx.ch</v>
-      </c>
-      <c r="L12" s="33" t="str" cm="1">
-        <f t="array" ref="L12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Telefonnummer],$E$13,1),"n/a")</f>
-        <v>+41 76 377 92 93</v>
+      <c r="F12" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" s="33">
+        <v>6312</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>315</v>
       </c>
       <c r="M12" s="33" t="str" cm="1">
         <f t="array" ref="M12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Kunden ID],$E$13,1),"n/a")</f>
@@ -17477,9 +17512,8 @@
       <c r="D68" t="s">
         <v>102</v>
       </c>
-      <c r="E68" t="str" cm="1">
-        <f t="array" ref="E68">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Name],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Name],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>Moresi</v>
+      <c r="E68" t="s">
+        <v>310</v>
       </c>
       <c r="F68" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17491,9 +17525,8 @@
       <c r="D69" t="s">
         <v>103</v>
       </c>
-      <c r="E69" t="str" cm="1">
-        <f t="array" ref="E69">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Vorname],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Vorname],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>Aurelia</v>
+      <c r="E69" t="s">
+        <v>311</v>
       </c>
       <c r="F69" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17504,9 +17537,8 @@
       <c r="D70" t="s">
         <v>104</v>
       </c>
-      <c r="E70" t="str" cm="1">
-        <f t="array" ref="E70">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Adresse],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Adresse],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>Rigiweg 19a</v>
+      <c r="E70" t="s">
+        <v>312</v>
       </c>
       <c r="F70" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17517,9 +17549,8 @@
       <c r="D71" t="s">
         <v>105</v>
       </c>
-      <c r="E71" t="str" cm="1">
-        <f t="array" ref="E71">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[PLZ],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[PLZ],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v xml:space="preserve">5643 </v>
+      <c r="E71" s="45">
+        <v>6312</v>
       </c>
       <c r="F71" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17530,9 +17561,8 @@
       <c r="D72" t="s">
         <v>106</v>
       </c>
-      <c r="E72" t="str" cm="1">
-        <f t="array" ref="E72">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Ort],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Ort],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>Sins</v>
+      <c r="E72" t="s">
+        <v>313</v>
       </c>
       <c r="F72" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17543,9 +17573,8 @@
       <c r="D73" t="s">
         <v>107</v>
       </c>
-      <c r="E73" t="str" cm="1">
-        <f t="array" ref="E73">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Mailadresse],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Mailadresse],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>aurelia.moresi@gmx.ch</v>
+      <c r="E73" t="s">
+        <v>314</v>
       </c>
       <c r="F73" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17556,9 +17585,8 @@
       <c r="D74" t="s">
         <v>108</v>
       </c>
-      <c r="E74" t="str" cm="1">
-        <f t="array" ref="E74">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Telefonnummer],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Telefonnummer],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>+41 76 377 92 93</v>
+      <c r="E74" s="27" t="s">
+        <v>315</v>
       </c>
       <c r="F74" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17569,9 +17597,8 @@
       <c r="D75" t="s">
         <v>114</v>
       </c>
-      <c r="E75" t="str" cm="1">
-        <f t="array" ref="E75">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Kunden ID],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Kunden ID],$E$13,1),$H$67),"n/a"),"n/v")</f>
-        <v>KF0182</v>
+      <c r="E75" t="s">
+        <v>316</v>
       </c>
       <c r="F75" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17673,7 +17700,7 @@
       <c r="D83" t="s">
         <v>204</v>
       </c>
-      <c r="E83" s="49" t="s">
+      <c r="E83" s="48" t="s">
         <v>225</v>
       </c>
       <c r="F83" s="46" t="str">
@@ -17762,8 +17789,8 @@
         <v>213</v>
       </c>
       <c r="E89" t="str">
-        <f>[1]SwissQRCode!A5</f>
-        <v>6331 Hünenberg</v>
+        <f>CONCATENATE(E71," ",E72)</f>
+        <v>6312 Steinhausen</v>
       </c>
       <c r="F89" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17775,8 +17802,8 @@
         <v>214</v>
       </c>
       <c r="E90" t="str">
-        <f>[1]SwissQRCode!A12</f>
-        <v>Moresi Aurelia</v>
+        <f>CONCATENATE(E68," ",E69)</f>
+        <v>Muster Peter</v>
       </c>
       <c r="F90" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17788,8 +17815,8 @@
         <v>215</v>
       </c>
       <c r="E91" t="str">
-        <f>[1]SwissQRCode!A13</f>
-        <v>Rigiweg 19a</v>
+        <f>E70</f>
+        <v>Erliweg 99a</v>
       </c>
       <c r="F91" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17801,8 +17828,8 @@
         <v>216</v>
       </c>
       <c r="E92" t="str">
-        <f>[1]SwissQRCode!A14</f>
-        <v>5643  Sins</v>
+        <f>CONCATENATE(E71," ",E72)</f>
+        <v>6312 Steinhausen</v>
       </c>
       <c r="F92" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17813,9 +17840,8 @@
       <c r="D93" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="48">
-        <f>[1]SwissQRCode!A17</f>
-        <v>230</v>
+      <c r="E93" s="51" t="s">
+        <v>319</v>
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17853,9 +17879,9 @@
       </c>
       <c r="E96" t="str">
         <f>CONCATENATE(E80,"_",E75,"_",E90,".docx")</f>
-        <v>AF1571_KF0182_Moresi Aurelia.docx</v>
-      </c>
-      <c r="F96" s="50" t="str">
+        <v>AF1571_KF0999_Muster Peter.docx</v>
+      </c>
+      <c r="F96" s="49" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
         <v>[--Filename--]</v>
       </c>
@@ -17867,7 +17893,7 @@
       <c r="E97" t="s">
         <v>223</v>
       </c>
-      <c r="F97" s="50" t="str">
+      <c r="F97" s="49" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
         <v>[--Filepath--]</v>
       </c>
@@ -18363,9 +18389,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C13067-15AF-4F78-98EF-8797820B2B84}">
-  <dimension ref="A2:H128"/>
+  <dimension ref="A2:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -18453,7 +18479,7 @@
     </row>
     <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -18465,7 +18491,7 @@
     </row>
     <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>35</v>
@@ -18487,7 +18513,7 @@
     </row>
     <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -18499,7 +18525,7 @@
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -18511,7 +18537,7 @@
     </row>
     <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>35</v>
@@ -18533,7 +18559,7 @@
     </row>
     <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -18545,7 +18571,7 @@
     </row>
     <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -18557,7 +18583,7 @@
     </row>
     <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>35</v>
@@ -18579,7 +18605,7 @@
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -18589,9 +18615,9 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -18603,7 +18629,7 @@
     </row>
     <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>35</v>
@@ -18623,9 +18649,9 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -18635,9 +18661,9 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -18649,7 +18675,7 @@
     </row>
     <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>35</v>
@@ -18669,9 +18695,9 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -18681,9 +18707,9 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -18695,7 +18721,7 @@
     </row>
     <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>35</v>
@@ -18715,9 +18741,9 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -18727,9 +18753,9 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -18739,43 +18765,43 @@
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+        <v>302</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -18785,43 +18811,43 @@
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+        <v>299</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -18831,43 +18857,43 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+        <v>296</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -18877,43 +18903,43 @@
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+        <v>293</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -18925,7 +18951,7 @@
     </row>
     <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -18937,7 +18963,7 @@
     </row>
     <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>35</v>
@@ -18959,7 +18985,7 @@
     </row>
     <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -18969,9 +18995,9 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
     </row>
-    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -18983,7 +19009,7 @@
     </row>
     <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>35</v>
@@ -19003,9 +19029,9 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -19017,7 +19043,7 @@
     </row>
     <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -19029,7 +19055,7 @@
     </row>
     <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>35</v>
@@ -19051,7 +19077,7 @@
     </row>
     <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -19063,7 +19089,7 @@
     </row>
     <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -19075,7 +19101,7 @@
     </row>
     <row r="61" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>35</v>
@@ -19097,7 +19123,7 @@
     </row>
     <row r="62" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -19107,9 +19133,9 @@
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -19119,43 +19145,43 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
     </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+        <v>277</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
     </row>
-    <row r="65" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
     </row>
     <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -19165,43 +19191,43 @@
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+        <v>274</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
     </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -19211,21 +19237,31 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+        <v>271</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -19235,43 +19271,43 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
     </row>
-    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
+        <v>268</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -19281,9 +19317,9 @@
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
     </row>
-    <row r="75" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -19293,43 +19329,43 @@
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
     </row>
-    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
     </row>
-    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
+        <v>264</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -19339,43 +19375,43 @@
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
     </row>
-    <row r="79" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+        <v>261</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -19385,31 +19421,21 @@
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
     </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -19419,43 +19445,43 @@
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
     </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+        <v>257</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
     </row>
-    <row r="85" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -19465,31 +19491,21 @@
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
     </row>
-    <row r="87" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F87" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
     </row>
     <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>35</v>
@@ -19509,87 +19525,67 @@
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
     </row>
-    <row r="89" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F89" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
     </row>
-    <row r="90" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F90" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
     </row>
-    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+        <v>250</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
     </row>
-    <row r="92" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
     </row>
     <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -19599,21 +19595,31 @@
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
     </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
+        <v>247</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
     </row>
     <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -19625,7 +19631,7 @@
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -19635,21 +19641,31 @@
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
     </row>
-    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+        <v>244</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -19659,21 +19675,31 @@
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
     </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
+        <v>236</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>35</v>
@@ -19695,7 +19721,7 @@
     </row>
     <row r="101" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>35</v>
@@ -19717,7 +19743,7 @@
     </row>
     <row r="102" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="B102" s="22" t="s">
         <v>35</v>
@@ -19737,31 +19763,21 @@
       <c r="G102" s="21"/>
       <c r="H102" s="21"/>
     </row>
-    <row r="103" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="B104" s="22" t="s">
         <v>35</v>
@@ -19781,163 +19797,93 @@
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
     </row>
-    <row r="105" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
     </row>
-    <row r="106" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F106" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
     </row>
-    <row r="107" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
     </row>
-    <row r="108" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
     </row>
-    <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
       <c r="G109" s="21"/>
       <c r="H109" s="21"/>
     </row>
-    <row r="110" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
     </row>
-    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
       <c r="G111" s="21"/>
       <c r="H111" s="21"/>
     </row>
     <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>35</v>
@@ -19959,7 +19905,7 @@
     </row>
     <row r="113" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>35</v>
@@ -19981,7 +19927,7 @@
     </row>
     <row r="114" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B114" s="22" t="s">
         <v>35</v>
@@ -20003,7 +19949,7 @@
     </row>
     <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>35</v>
@@ -20015,7 +19961,7 @@
         <v>49</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F115" s="22" t="s">
         <v>45</v>
@@ -20025,7 +19971,7 @@
     </row>
     <row r="116" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>35</v>
@@ -20037,7 +19983,7 @@
         <v>49</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F116" s="22" t="s">
         <v>45</v>
@@ -20047,7 +19993,7 @@
     </row>
     <row r="117" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>35</v>
@@ -20059,7 +20005,7 @@
         <v>49</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F117" s="22" t="s">
         <v>45</v>
@@ -20069,7 +20015,7 @@
     </row>
     <row r="118" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>35</v>
@@ -20077,13 +20023,13 @@
       <c r="C118" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E118" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="21" t="s">
+      <c r="E118" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G118" s="21"/>
@@ -20091,7 +20037,7 @@
     </row>
     <row r="119" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B119" s="22" t="s">
         <v>35</v>
@@ -20099,13 +20045,13 @@
       <c r="C119" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D119" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E119" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F119" s="21" t="s">
+      <c r="E119" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F119" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G119" s="21"/>
@@ -20113,7 +20059,7 @@
     </row>
     <row r="120" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>35</v>
@@ -20121,13 +20067,13 @@
       <c r="C120" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="D120" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E120" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F120" s="21" t="s">
+      <c r="E120" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G120" s="21"/>
@@ -20135,7 +20081,7 @@
     </row>
     <row r="121" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B121" s="22" t="s">
         <v>35</v>
@@ -20143,13 +20089,13 @@
       <c r="C121" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F121" s="21" t="s">
+      <c r="E121" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G121" s="21"/>
@@ -20157,7 +20103,7 @@
     </row>
     <row r="122" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>35</v>
@@ -20165,13 +20111,13 @@
       <c r="C122" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D122" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E122" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F122" s="21" t="s">
+      <c r="E122" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F122" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G122" s="21"/>
@@ -20179,7 +20125,7 @@
     </row>
     <row r="123" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>35</v>
@@ -20187,13 +20133,13 @@
       <c r="C123" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D123" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E123" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F123" s="21" t="s">
+      <c r="E123" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G123" s="21"/>
@@ -20201,7 +20147,7 @@
     </row>
     <row r="124" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>35</v>
@@ -20209,13 +20155,13 @@
       <c r="C124" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" s="21" t="s">
+      <c r="D124" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G124" s="21"/>
@@ -20223,7 +20169,7 @@
     </row>
     <row r="125" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>35</v>
@@ -20231,27 +20177,43 @@
       <c r="C125" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
+      <c r="D125" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
     </row>
     <row r="127" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>35</v>
@@ -20259,14 +20221,262 @@
       <c r="C127" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
+      <c r="D127" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+    <row r="128" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+    </row>
+    <row r="129" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+    </row>
+    <row r="130" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+    </row>
+    <row r="131" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A131" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+    </row>
+    <row r="132" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+    </row>
+    <row r="133" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+    </row>
+    <row r="134" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A134" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+    </row>
+    <row r="135" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="136" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+    </row>
+    <row r="137" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+    </row>
+    <row r="139" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A139" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
         <v>32</v>
       </c>
     </row>

--- a/fotoleuToolbox.xlsx
+++ b/fotoleuToolbox.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34231BBD-7C79-432D-9E54-03EE706AF714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D33EA4-F28B-404E-85DC-32F6B0730F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwissQRCode (old)" sheetId="3" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="382">
   <si>
     <t>Empfangsschein</t>
   </si>
@@ -338,9 +338,6 @@
     <t>=BillInformation</t>
   </si>
   <si>
-    <t>KF1515</t>
-  </si>
-  <si>
     <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp at 02.01.2021 15:45:39</t>
   </si>
   <si>
@@ -1148,6 +1145,159 @@
   </si>
   <si>
     <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_faa69c1c-7cba-49e3-a353-ee0540f884c6.docx at 05.01.2021 12:15:39</t>
+  </si>
+  <si>
+    <t>05.01.2021 12:57:03</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=</t>
+  </si>
+  <si>
+    <t>05.01.2021 12:57:33</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp</t>
+  </si>
+  <si>
+    <t>generateQRCode: Exception=Der string-Typ kann nicht in float konvertiert werden.</t>
+  </si>
+  <si>
+    <t>05.01.2021 12:58:14</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_299694a2-e93d-43b5-9292-d294c0a0eac8.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 12:58:16</t>
+  </si>
+  <si>
+    <t>05.01.2021 12:58:20</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\2ndDoc_AF1571_299694a2-e93d-43...)</t>
+  </si>
+  <si>
+    <t>05.01.2021 12:58:39</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:01:58</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_ae53484e-0be7-43dd-926e-867c2a001db5.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:01:59</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:02:03</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\2ndDoc_AF1571_ae53484e-0be7-43...)</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:02:34</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_ede54809-a0fc-4d72-b3f6-9a15df52f91b.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:02:35</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:02:41</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\2ndDoc_AF1571_ede54809-a0fc-4d...)</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:04:07</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_637f7199-26f2-4bd1-a337-e14c3ece240c.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:04:12</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:04:17</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\2ndDoc_AF1571_637f7199-26f2-4b...)</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:04:39</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:05:07</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:07:25</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:07:55</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:08:07</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:08:32</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:08:53</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:10:48</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:12:31</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:13:02</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:13:06</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:14:15</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:15:19</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:17:04</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:17:23</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_49c3ff6a-1cf6-4c35-86ad-3206f466612d.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:17:24</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:17:58</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_49c3ff6a-1cf6-4c35-86ad-3206f466612d.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:20:30</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:20:41</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:23:42</t>
+  </si>
+  <si>
+    <t>Additional Information: UnstructureMessage=AF1571 / KF0182 / ES=1353 / BillInformation=Datum 01.10.2020</t>
+  </si>
+  <si>
+    <t>05.01.2021 13:23:49</t>
   </si>
 </sst>
 </file>
@@ -2624,6 +2774,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA2DE92-8CE0-45C1-81F1-36C28E5885DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A185D5-ECFD-4AA2-8086-C9AF596BE007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -16858,8 +17113,8 @@
   </sheetPr>
   <dimension ref="B2:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16873,17 +17128,17 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -16902,7 +17157,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -16915,7 +17170,7 @@
         <v>zz Rechnungs Test Vorlage - Automatisiert.docx</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="33" t="str">
         <f>CONCATENATE(E6,E9)</f>
@@ -16924,37 +17179,37 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="G11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="H11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="I11" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="J11" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="K11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="L11" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="M11" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="N11" s="35" t="s">
         <v>109</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -16967,25 +17222,25 @@
         <v>(KF0182) Moresi Aurelia</v>
       </c>
       <c r="F12" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>311</v>
-      </c>
       <c r="H12" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" s="33">
         <v>6312</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M12" s="33" t="str" cm="1">
         <f t="array" ref="M12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Kunden ID],$E$13,1),"n/a")</f>
@@ -16998,7 +17253,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="40">
         <f>MATCH(D12,[1]!KundenTabelle[Kunden ID],0)</f>
@@ -17007,25 +17262,25 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="G15" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="H15" s="35" t="s">
         <v>115</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>116</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -17060,7 +17315,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="40">
         <f>MATCH(D16,[1]!AuftragsTabelle[AuftragID],0)</f>
@@ -17069,13 +17324,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>119</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -17094,7 +17349,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="40" t="e">
         <f>MATCH(D20,[1]!ProduktTabelle[Produkt],0)</f>
@@ -17103,417 +17358,417 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
         <v>124</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>125</v>
-      </c>
-      <c r="F30" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
         <v>127</v>
       </c>
-      <c r="E31" t="s">
-        <v>128</v>
-      </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>130</v>
-      </c>
-      <c r="F32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
         <v>132</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>133</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
         <v>136</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>137</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s">
         <v>140</v>
       </c>
-      <c r="E37" t="s">
-        <v>141</v>
-      </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
         <v>142</v>
       </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
         <v>144</v>
       </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
         <v>146</v>
       </c>
-      <c r="E40" t="s">
-        <v>147</v>
-      </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
         <v>148</v>
       </c>
-      <c r="E41" t="s">
-        <v>149</v>
-      </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
         <v>150</v>
       </c>
-      <c r="E42" t="s">
-        <v>151</v>
-      </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
         <v>152</v>
       </c>
-      <c r="E43" t="s">
-        <v>153</v>
-      </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="E44" t="s">
-        <v>155</v>
-      </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" t="s">
         <v>156</v>
       </c>
-      <c r="E45" t="s">
-        <v>157</v>
-      </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
         <v>158</v>
       </c>
-      <c r="E46" t="s">
-        <v>159</v>
-      </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
         <v>160</v>
       </c>
-      <c r="E47" t="s">
-        <v>161</v>
-      </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
         <v>162</v>
       </c>
-      <c r="E48" t="s">
-        <v>163</v>
-      </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
         <v>164</v>
       </c>
-      <c r="E49" t="s">
-        <v>165</v>
-      </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
         <v>166</v>
       </c>
-      <c r="E50" t="s">
-        <v>167</v>
-      </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
         <v>168</v>
       </c>
-      <c r="E51" t="s">
-        <v>169</v>
-      </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
         <v>170</v>
       </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" t="s">
         <v>172</v>
       </c>
-      <c r="E53" t="s">
-        <v>173</v>
-      </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" t="s">
         <v>174</v>
       </c>
-      <c r="E54" t="s">
-        <v>175</v>
-      </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" t="s">
         <v>176</v>
       </c>
-      <c r="E55" t="s">
-        <v>177</v>
-      </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
         <v>178</v>
       </c>
-      <c r="E56" t="s">
-        <v>179</v>
-      </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" t="s">
         <v>180</v>
       </c>
-      <c r="E57" t="s">
-        <v>181</v>
-      </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
         <v>182</v>
       </c>
-      <c r="E58" t="s">
-        <v>183</v>
-      </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" t="s">
         <v>184</v>
       </c>
-      <c r="E59" t="s">
-        <v>185</v>
-      </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
         <v>186</v>
       </c>
-      <c r="E60" t="s">
-        <v>187</v>
-      </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
         <v>188</v>
       </c>
-      <c r="E62" t="s">
-        <v>189</v>
-      </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G66" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" t="s">
         <v>193</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>194</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="H67" t="s">
         <v>196</v>
-      </c>
-      <c r="H67" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F68" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17523,10 +17778,10 @@
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F69" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17535,10 +17790,10 @@
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F70" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17547,7 +17802,7 @@
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" s="45">
         <v>6312</v>
@@ -17559,10 +17814,10 @@
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F72" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17571,10 +17826,10 @@
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F73" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17583,10 +17838,10 @@
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F74" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17595,10 +17850,10 @@
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F75" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17607,7 +17862,7 @@
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" t="str" cm="1">
         <f t="array" ref="E76">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Kindervornamen],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Kindervornamen],$E$13,1),$H$67),"n/a"),"n/v")</f>
@@ -17620,7 +17875,7 @@
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77" t="str" cm="1">
         <f t="array" ref="E77">IFERROR(IF(D20&lt;&gt;"",IF(INDEX([1]!ProduktTabelle[Rechnungsbeschreibung],E21,1)&lt;&gt;0,INDEX([1]!ProduktTabelle[Rechnungsbeschreibung],E21,1),$H$67),"n/a"),"n/v")</f>
@@ -17633,7 +17888,7 @@
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E78" t="str" cm="1">
         <f t="array" ref="E78">IFERROR(IF(D20&lt;&gt;"",IF(INDEX([1]!ProduktTabelle[Beschreibung],E21,1)&lt;&gt;0,INDEX([1]!ProduktTabelle[Beschreibung],E21,1),$H$67),"n/a"),"n/v")</f>
@@ -17646,7 +17901,7 @@
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E79" t="str" cm="1">
         <f t="array" ref="E79">IFERROR(IF(D20&lt;&gt;"",IF(INDEX([1]!ProduktTabelle[Preisliste],E21,1)&lt;&gt;0,INDEX([1]!ProduktTabelle[Preisliste],E21,1),$H$67),"n/a"),"n/v")</f>
@@ -17659,7 +17914,7 @@
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E80" t="str">
         <f>IFERROR(D16,"n/v")</f>
@@ -17685,7 +17940,7 @@
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E82" s="45" cm="1">
         <f t="array" ref="E82">IFERROR(IF($D$16&lt;&gt;"",INDEX([1]!AuftragsTabelle[ES-Nummer],$E$17,1),"n/a"),"n/v")</f>
@@ -17698,10 +17953,10 @@
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F83" s="46" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17710,7 +17965,7 @@
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E84" t="str">
         <f>IFERROR(IF($D$12&lt;&gt;"",IF(N12="x",H84,K84),"n/a"),"n/v")</f>
@@ -17721,21 +17976,21 @@
         <v>[--Schlusssatz--]</v>
       </c>
       <c r="G84" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" t="s">
         <v>206</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="J84" s="39" t="s">
+      <c r="K84" t="s">
         <v>208</v>
-      </c>
-      <c r="K84" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E85" s="47" t="s">
         <v>7</v>
@@ -17760,7 +18015,7 @@
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" t="str">
         <f>[1]SwissQRCode!A3</f>
@@ -17773,7 +18028,7 @@
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E88" t="str">
         <f>[1]SwissQRCode!A4</f>
@@ -17786,7 +18041,7 @@
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E89" t="str">
         <f>CONCATENATE(E71," ",E72)</f>
@@ -17799,7 +18054,7 @@
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E90" t="str">
         <f>CONCATENATE(E68," ",E69)</f>
@@ -17812,7 +18067,7 @@
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E91" t="str">
         <f>E70</f>
@@ -17825,7 +18080,7 @@
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E92" t="str">
         <f>CONCATENATE(E71," ",E72)</f>
@@ -17841,7 +18096,7 @@
         <v>41</v>
       </c>
       <c r="E93" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17850,7 +18105,7 @@
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E94" t="str">
         <f>[1]SwissQRCode!A8</f>
@@ -17863,10 +18118,10 @@
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" t="s">
         <v>218</v>
-      </c>
-      <c r="E95" t="s">
-        <v>219</v>
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17875,7 +18130,7 @@
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E96" t="str">
         <f>CONCATENATE(E80,"_",E75,"_",E90,".docx")</f>
@@ -17888,10 +18143,10 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F97" s="49" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17916,7 +18171,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17981,8 +18236,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>69</v>
+      <c r="A8" s="2" t="str">
+        <f>'Auftragsblatt-Data'!E94</f>
+        <v>AF1571 / KF0182 / ES=1353</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -18071,7 +18327,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -18080,10 +18336,10 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -18094,7 +18350,7 @@
         <v>490</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -18105,7 +18361,7 @@
         <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -18116,21 +18372,21 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -18138,28 +18394,28 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -18240,7 +18496,7 @@
       </c>
       <c r="F41" s="2" t="str">
         <f>A8</f>
-        <v>KF1515</v>
+        <v>AF1571 / KF0182 / ES=1353</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -18389,2099 +18645,2875 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C13067-15AF-4F78-98EF-8797820B2B84}">
-  <dimension ref="A2:H140"/>
+  <dimension ref="A2:I182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="18" customWidth="1"/>
-    <col min="3" max="6" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="18" customWidth="1"/>
+    <col min="4" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="22"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="F21" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="22"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="D25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="F25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="22"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28" s="22"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="D31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="F31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B32" s="22"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D34" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="E34" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="F34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
       <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B35" s="22"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B36" s="22" t="s">
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="D36" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="E36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="F36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="21"/>
       <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="22"/>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B40" s="22"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="22"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B42" s="22" t="s">
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="22" t="s">
+      <c r="F43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21"/>
       <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B44" s="22"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>353</v>
+      </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="21"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B46" s="22"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B49" s="22"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="22"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21"/>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="21"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B53" s="22"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="21"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="21"/>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="21"/>
-    </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B56" s="22"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="21"/>
-    </row>
-    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="21"/>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H57" s="21"/>
-    </row>
-    <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="21"/>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="21"/>
-    </row>
-    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B59" s="22"/>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="21"/>
-    </row>
-    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="21"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="21"/>
-    </row>
-    <row r="62" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" s="22"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>330</v>
+      </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="21"/>
-    </row>
-    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="21"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H63" s="21"/>
-    </row>
-    <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="21"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
       <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B65" s="22"/>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>327</v>
+      </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="22"/>
       <c r="H65" s="21"/>
-    </row>
-    <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="21"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H66" s="21"/>
-    </row>
-    <row r="67" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="21"/>
-    </row>
-    <row r="68" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68" s="22"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="22"/>
       <c r="H68" s="21"/>
-    </row>
-    <row r="69" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H69" s="21"/>
-    </row>
-    <row r="70" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70" s="21"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
       <c r="H70" s="21"/>
-    </row>
-    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B71" s="22"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="22"/>
       <c r="H71" s="21"/>
-    </row>
-    <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="21"/>
+      <c r="I71" s="21"/>
+    </row>
+    <row r="72" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H72" s="21"/>
-    </row>
-    <row r="73" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" s="21"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
       <c r="H73" s="21"/>
-    </row>
-    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B74" s="22"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="22"/>
       <c r="H74" s="21"/>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H75" s="21"/>
-    </row>
-    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B76" s="22"/>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>306</v>
+      </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="22"/>
       <c r="H76" s="21"/>
-    </row>
-    <row r="77" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B77" s="22" t="s">
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B78" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="D78" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="E78" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F77" s="22" t="s">
+      <c r="F78" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-    </row>
-    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="21"/>
       <c r="H78" s="21"/>
-    </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" s="22"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="22"/>
       <c r="H79" s="21"/>
-    </row>
-    <row r="80" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B80" s="22" t="s">
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B81" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="D81" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="E81" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E80" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F80" s="22" t="s">
+      <c r="F81" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="21"/>
       <c r="H81" s="21"/>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="22"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>300</v>
+      </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="22"/>
       <c r="H82" s="21"/>
-    </row>
-    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B83" s="22"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>299</v>
+      </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="22"/>
       <c r="H83" s="21"/>
-    </row>
-    <row r="84" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B84" s="22" t="s">
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B84" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="D84" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="E84" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="F84" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G84" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="21"/>
       <c r="H84" s="21"/>
-    </row>
-    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B85" s="22"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="22"/>
       <c r="H85" s="21"/>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" s="22"/>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
-      <c r="G86" s="21"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="21"/>
-    </row>
-    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="21"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H87" s="21"/>
-    </row>
-    <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G88" s="21"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
       <c r="H88" s="21"/>
-    </row>
-    <row r="89" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B89" s="22"/>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="22"/>
       <c r="H89" s="21"/>
-    </row>
-    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="21"/>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B90" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H90" s="21"/>
-    </row>
-    <row r="91" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F91" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G91" s="21"/>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="21"/>
-    </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B92" s="22"/>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>290</v>
+      </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="22"/>
       <c r="H92" s="21"/>
-    </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B93" s="22"/>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B93" s="20" t="s">
+        <v>289</v>
+      </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="22"/>
       <c r="H93" s="21"/>
-    </row>
-    <row r="94" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B94" s="22" t="s">
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B94" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="D94" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="E94" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="F94" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G94" s="21"/>
       <c r="H94" s="21"/>
-    </row>
-    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="B95" s="22"/>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B95" s="20" t="s">
+        <v>287</v>
+      </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="22"/>
       <c r="H95" s="21"/>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="22"/>
+      <c r="I95" s="21"/>
+    </row>
+    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B96" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
-      <c r="G96" s="21"/>
+      <c r="G96" s="22"/>
       <c r="H96" s="21"/>
-    </row>
-    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B97" s="22" t="s">
+      <c r="I96" s="21"/>
+    </row>
+    <row r="97" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B97" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="D97" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="E97" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E97" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="F97" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G97" s="21"/>
       <c r="H97" s="21"/>
-    </row>
-    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" s="22"/>
+      <c r="I97" s="21"/>
+    </row>
+    <row r="98" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B98" s="20" t="s">
+        <v>284</v>
+      </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
-      <c r="G98" s="21"/>
+      <c r="G98" s="22"/>
       <c r="H98" s="21"/>
-    </row>
-    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B99" s="22" t="s">
+      <c r="I98" s="21"/>
+    </row>
+    <row r="99" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B99" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+    </row>
+    <row r="100" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B100" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="D100" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="E100" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E99" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F99" s="22" t="s">
+      <c r="F100" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-    </row>
-    <row r="100" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" s="22" t="s">
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+    </row>
+    <row r="101" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B101" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+    </row>
+    <row r="102" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+    </row>
+    <row r="103" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B103" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="D103" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="E103" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E100" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100" s="22" t="s">
+      <c r="F103" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-    </row>
-    <row r="101" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-    </row>
-    <row r="102" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-    </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="21"/>
       <c r="H103" s="21"/>
-    </row>
-    <row r="104" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G104" s="21"/>
+      <c r="I103" s="21"/>
+    </row>
+    <row r="104" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B104" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
       <c r="H104" s="21"/>
-    </row>
-    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="22"/>
+      <c r="I104" s="21"/>
+    </row>
+    <row r="105" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B105" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
-      <c r="G105" s="21"/>
+      <c r="G105" s="22"/>
       <c r="H105" s="21"/>
-    </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="21"/>
+      <c r="I105" s="21"/>
+    </row>
+    <row r="106" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="22"/>
+      <c r="I106" s="21"/>
+    </row>
+    <row r="107" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="22"/>
       <c r="H107" s="21"/>
-    </row>
-    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" s="22"/>
+      <c r="I107" s="21"/>
+    </row>
+    <row r="108" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B108" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
-      <c r="G108" s="21"/>
+      <c r="G108" s="22"/>
       <c r="H108" s="21"/>
-    </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="21"/>
+      <c r="I108" s="21"/>
+    </row>
+    <row r="109" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H109" s="21"/>
-    </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="22"/>
+      <c r="I109" s="21"/>
+    </row>
+    <row r="110" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
-      <c r="G110" s="21"/>
+      <c r="G110" s="22"/>
       <c r="H110" s="21"/>
-    </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="22"/>
+      <c r="I110" s="21"/>
+    </row>
+    <row r="111" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B111" s="20" t="s">
+        <v>271</v>
+      </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
-      <c r="G111" s="21"/>
+      <c r="G111" s="22"/>
       <c r="H111" s="21"/>
-    </row>
-    <row r="112" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="22" t="s">
+      <c r="I111" s="21"/>
+    </row>
+    <row r="112" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B112" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="D112" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="E112" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="F112" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G112" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G112" s="21"/>
       <c r="H112" s="21"/>
-    </row>
-    <row r="113" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
+      <c r="I112" s="21"/>
+    </row>
+    <row r="113" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B113" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+    </row>
+    <row r="114" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+    </row>
+    <row r="115" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B115" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+    </row>
+    <row r="116" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B116" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+    </row>
+    <row r="117" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+    </row>
+    <row r="118" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B118" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+    </row>
+    <row r="119" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B119" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+    </row>
+    <row r="120" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B120" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+    </row>
+    <row r="121" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B121" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+    </row>
+    <row r="122" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B122" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+    </row>
+    <row r="123" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B123" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+    </row>
+    <row r="124" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+    </row>
+    <row r="125" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B125" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+    </row>
+    <row r="126" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B126" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+    </row>
+    <row r="127" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B127" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+    </row>
+    <row r="128" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+    </row>
+    <row r="129" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B129" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+    </row>
+    <row r="130" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B130" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+    </row>
+    <row r="131" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B131" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+    </row>
+    <row r="132" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B132" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+    </row>
+    <row r="133" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B133" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+    </row>
+    <row r="134" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B134" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+    </row>
+    <row r="135" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B135" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+    </row>
+    <row r="136" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B136" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+    </row>
+    <row r="137" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B137" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+    </row>
+    <row r="138" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B138" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+    </row>
+    <row r="139" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B139" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+    </row>
+    <row r="140" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B140" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+    </row>
+    <row r="141" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B141" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+    </row>
+    <row r="142" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B142" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+    </row>
+    <row r="143" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B143" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+    </row>
+    <row r="144" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B144" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+    </row>
+    <row r="145" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B145" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+    </row>
+    <row r="146" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B146" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+    </row>
+    <row r="147" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B147" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+    </row>
+    <row r="148" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B148" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+    </row>
+    <row r="149" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B149" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+    </row>
+    <row r="150" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B150" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+    </row>
+    <row r="151" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B151" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+    </row>
+    <row r="152" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+    </row>
+    <row r="153" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B153" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+    </row>
+    <row r="154" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B154" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="C154" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="D154" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="E154" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F113" s="22" t="s">
+      <c r="F154" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G154" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-    </row>
-    <row r="114" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="20" t="s">
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+    </row>
+    <row r="155" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B155" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="C155" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="D155" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="E155" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E114" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F114" s="22" t="s">
+      <c r="F155" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G155" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-    </row>
-    <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+    </row>
+    <row r="156" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B156" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="C156" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="D156" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="E156" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F115" s="22" t="s">
+      <c r="F156" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G156" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-    </row>
-    <row r="116" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+    </row>
+    <row r="157" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B157" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="C157" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="D157" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="E157" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E116" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F116" s="22" t="s">
+      <c r="F157" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-    </row>
-    <row r="117" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+    </row>
+    <row r="158" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B158" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="C158" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="D158" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="E158" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F117" s="22" t="s">
+      <c r="F158" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G158" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
-    </row>
-    <row r="118" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+    </row>
+    <row r="159" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B159" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="C159" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="D159" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="E159" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E118" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="22" t="s">
+      <c r="F159" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G159" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-    </row>
-    <row r="119" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+    </row>
+    <row r="160" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B160" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="C160" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="D160" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="E160" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E119" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F119" s="22" t="s">
+      <c r="F160" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G160" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-    </row>
-    <row r="120" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+    </row>
+    <row r="161" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B161" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="C161" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="D161" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="E161" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E120" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F120" s="22" t="s">
+      <c r="F161" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G161" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-    </row>
-    <row r="121" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+    </row>
+    <row r="162" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B162" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="C162" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="D162" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="E162" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F121" s="22" t="s">
+      <c r="F162" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G162" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-    </row>
-    <row r="122" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+    </row>
+    <row r="163" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B163" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="C163" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="D163" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="E163" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E122" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F122" s="22" t="s">
+      <c r="F163" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G163" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-    </row>
-    <row r="123" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+    </row>
+    <row r="164" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B164" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="C164" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="D164" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="E164" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F123" s="22" t="s">
+      <c r="F164" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G164" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-    </row>
-    <row r="124" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+    </row>
+    <row r="165" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B165" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="C165" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="D165" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="E165" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E124" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F124" s="22" t="s">
+      <c r="F165" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G165" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-    </row>
-    <row r="125" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+    </row>
+    <row r="166" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B166" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="C166" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="D166" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="E166" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E125" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F125" s="22" t="s">
+      <c r="F166" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G166" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-    </row>
-    <row r="126" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+    </row>
+    <row r="167" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B167" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F167" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="G167" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+    </row>
+    <row r="168" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B168" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C168" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="D168" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="E168" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F126" s="22" t="s">
+      <c r="F168" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G168" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-    </row>
-    <row r="127" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+    </row>
+    <row r="169" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B169" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="C169" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="D169" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="E169" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="F169" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="G169" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-    </row>
-    <row r="128" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+    </row>
+    <row r="170" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B170" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="C170" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="D170" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="E170" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="F170" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="G170" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-    </row>
-    <row r="129" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+    </row>
+    <row r="171" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B171" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="C171" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="D171" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="E171" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="F171" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="G171" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-    </row>
-    <row r="130" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
+    </row>
+    <row r="172" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B172" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="C172" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="D172" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="21" t="s">
+      <c r="E172" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="F172" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F130" s="21" t="s">
+      <c r="G172" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-    </row>
-    <row r="131" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+    </row>
+    <row r="173" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B173" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="C173" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="D173" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D131" s="21" t="s">
+      <c r="E173" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="F173" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F131" s="21" t="s">
+      <c r="G173" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-    </row>
-    <row r="132" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A132" s="20" t="s">
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+    </row>
+    <row r="174" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B174" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="C174" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="D174" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D132" s="21" t="s">
+      <c r="E174" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="F174" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="G174" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
-    </row>
-    <row r="133" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="s">
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+    </row>
+    <row r="175" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B175" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="C175" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="D175" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="21" t="s">
+      <c r="E175" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="F175" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F133" s="21" t="s">
+      <c r="G175" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-    </row>
-    <row r="134" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A134" s="20" t="s">
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
+    </row>
+    <row r="176" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B176" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="C176" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="D176" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="21" t="s">
+      <c r="E176" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="F176" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="G176" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-    </row>
-    <row r="135" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
+    </row>
+    <row r="177" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B177" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="C177" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="D177" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="E177" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="F177" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="G177" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-    </row>
-    <row r="136" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+    </row>
+    <row r="178" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B178" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="C178" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="D178" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="E178" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="F178" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F136" s="21" t="s">
+      <c r="G178" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-    </row>
-    <row r="137" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A137" s="20" t="s">
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
+    </row>
+    <row r="179" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B179" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="C179" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="D179" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-    </row>
-    <row r="139" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
+    </row>
+    <row r="181" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B181" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="C181" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="D181" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="19" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/fotoleuToolbox.xlsx
+++ b/fotoleuToolbox.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D33EA4-F28B-404E-85DC-32F6B0730F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045730F-3E4B-4305-8771-C2AF2BFA1393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="435">
   <si>
     <t>Empfangsschein</t>
   </si>
@@ -368,9 +368,6 @@
     <t>(A26)</t>
   </si>
   <si>
-    <t>C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp</t>
-  </si>
-  <si>
     <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp at 02.01.2021 15:57:42</t>
   </si>
   <si>
@@ -1298,6 +1295,168 @@
   </si>
   <si>
     <t>05.01.2021 13:23:49</t>
+  </si>
+  <si>
+    <t>C:\Users\XXXXimfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:00:47</t>
+  </si>
+  <si>
+    <t>generateQRCode: Exception=Allgemeiner Fehler in GDI+.</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:01:53</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:03:17</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:06:47</t>
+  </si>
+  <si>
+    <t>generateQRCode: Cannot save QR code bitmap to alternative path! altpicturePath=C:\Users\XXXXimfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:06:50</t>
+  </si>
+  <si>
+    <t>QR Code generated! Path=C:\Users\imfeldc\AppData\Local\Temp\qrcode.bmp / AltPath=C:\Users\XXXXimfeldc\source\repos\SwissQRCodeExcel4\qrcode.bmp</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:06:57</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:27:51</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_b28bf5b5-7cda-41de-9cb0-d841780e756c.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:27:52</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:27:59</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_b28bf5b5-7cda-41de-9cb0-d841780e756c.docx</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=The specified file wasn't found.</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:29:27</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_7c88ba5f-b37a-458e-a904-f5f92b80eb2d.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:29:29</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:29:36</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_7c88ba5f-b37a-458e-a904-f5f92b80eb2d.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:29:59</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:30:14</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_798507ff-d549-4ee2-95cd-fd8556dadb67.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:30:15</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:30:22</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_798507ff-d549-4ee2-95cd-fd8556dadb67.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:30:34</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_8d3ad308-945e-460e-a254-7e380192d1d6.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:30:36</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:30:41</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_8d3ad308-945e-460e-a254-7e380192d1d6.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:31:04</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_e872e961-68fc-4e0a-b163-1b4d09003b84.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:31:11</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_e872e961-68fc-4e0a-b163-1b4d09003b84.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:31:55</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:33:10</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_a1cb9eff-6e54-4155-acec-f95beec09c12.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:33:16</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_a1cb9eff-6e54-4155-acec-f95beec09c12.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:33:17</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_a1cb9eff-6e54-4155-acec-f95beec09c12.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_a1cb9eff-6e54-4155-acec-f95beec09c12.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:33:22</t>
+  </si>
+  <si>
+    <t>generateDocument: Target file has been created! Number of words=567</t>
+  </si>
+  <si>
+    <t>05.01.2021 14:33:25</t>
+  </si>
+  <si>
+    <t>generateDocument: Target file has been saved! strFileTarget=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\AF1571_KF0999_Muster Peter.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 15:07:46</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_effdaf4e-a006-49e9-87dd-36f9a6c6c6b9.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 15:07:53</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_effdaf4e-a006-49e9-87dd-36f9a6c6c6b9.docx</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_effdaf4e-a006-49e9-87dd-36f9a6c6c6b9.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_effdaf4e-a006-49e9-87dd-36f9a6c6c6b9.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 15:07:58</t>
+  </si>
+  <si>
+    <t>05.01.2021 15:08:01</t>
   </si>
 </sst>
 </file>
@@ -2876,6 +3035,406 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E580A3-E09E-4933-9D61-900B71623371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901E4387-CE47-4D9E-98C2-2D8328E46CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B600542-0AA3-4550-ADD8-DF9313483DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0E1283-646B-483A-B289-D945D5DF9C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FCD529-5D8D-414C-98D7-98C50237526B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EE4AE1-3615-4F0D-BF1D-2E4E82AEF921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868DC421-BFD3-4778-A81F-135E746B9F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7A9FAA-7592-4BFB-AA88-5A589C6F8441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17113,8 +17672,8 @@
   </sheetPr>
   <dimension ref="B2:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17128,17 +17687,17 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -17157,7 +17716,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -17170,7 +17729,7 @@
         <v>zz Rechnungs Test Vorlage - Automatisiert.docx</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="33" t="str">
         <f>CONCATENATE(E6,E9)</f>
@@ -17179,37 +17738,37 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="G11" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="H11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="I11" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="J11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="K11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="L11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="M11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="N11" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -17222,25 +17781,25 @@
         <v>(KF0182) Moresi Aurelia</v>
       </c>
       <c r="F12" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>310</v>
-      </c>
       <c r="H12" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I12" s="33">
         <v>6312</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M12" s="33" t="str" cm="1">
         <f t="array" ref="M12">IF($D$12&lt;&gt;"",INDEX([1]!KundenTabelle[Kunden ID],$E$13,1),"n/a")</f>
@@ -17253,7 +17812,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="40">
         <f>MATCH(D12,[1]!KundenTabelle[Kunden ID],0)</f>
@@ -17262,25 +17821,25 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="G15" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="H15" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>115</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -17315,7 +17874,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="40">
         <f>MATCH(D16,[1]!AuftragsTabelle[AuftragID],0)</f>
@@ -17324,13 +17883,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -17349,7 +17908,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="40" t="e">
         <f>MATCH(D20,[1]!ProduktTabelle[Produkt],0)</f>
@@ -17358,417 +17917,417 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
         <v>123</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>124</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
         <v>126</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
         <v>131</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
         <v>135</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>136</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
         <v>139</v>
       </c>
-      <c r="E37" t="s">
-        <v>140</v>
-      </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" t="s">
         <v>141</v>
       </c>
-      <c r="E38" t="s">
-        <v>142</v>
-      </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
         <v>143</v>
       </c>
-      <c r="E39" t="s">
-        <v>144</v>
-      </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
         <v>145</v>
       </c>
-      <c r="E40" t="s">
-        <v>146</v>
-      </c>
       <c r="F40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
         <v>147</v>
       </c>
-      <c r="E41" t="s">
-        <v>148</v>
-      </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
         <v>149</v>
       </c>
-      <c r="E42" t="s">
-        <v>150</v>
-      </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
         <v>151</v>
       </c>
-      <c r="E43" t="s">
-        <v>152</v>
-      </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
         <v>153</v>
       </c>
-      <c r="E44" t="s">
-        <v>154</v>
-      </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
-        <v>156</v>
-      </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" t="s">
         <v>157</v>
       </c>
-      <c r="E46" t="s">
-        <v>158</v>
-      </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
         <v>159</v>
       </c>
-      <c r="E47" t="s">
-        <v>160</v>
-      </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="s">
         <v>161</v>
       </c>
-      <c r="E48" t="s">
-        <v>162</v>
-      </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
         <v>163</v>
       </c>
-      <c r="E49" t="s">
-        <v>164</v>
-      </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
         <v>165</v>
       </c>
-      <c r="E50" t="s">
-        <v>166</v>
-      </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
         <v>167</v>
       </c>
-      <c r="E51" t="s">
-        <v>168</v>
-      </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
         <v>169</v>
       </c>
-      <c r="E52" t="s">
-        <v>170</v>
-      </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
         <v>171</v>
       </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" t="s">
         <v>173</v>
       </c>
-      <c r="E54" t="s">
-        <v>174</v>
-      </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" t="s">
         <v>175</v>
       </c>
-      <c r="E55" t="s">
-        <v>176</v>
-      </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
         <v>177</v>
       </c>
-      <c r="E56" t="s">
-        <v>178</v>
-      </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" t="s">
         <v>179</v>
       </c>
-      <c r="E57" t="s">
-        <v>180</v>
-      </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" t="s">
         <v>181</v>
       </c>
-      <c r="E58" t="s">
-        <v>182</v>
-      </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
         <v>183</v>
       </c>
-      <c r="E59" t="s">
-        <v>184</v>
-      </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" t="s">
         <v>185</v>
       </c>
-      <c r="E60" t="s">
-        <v>186</v>
-      </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" t="s">
         <v>187</v>
       </c>
-      <c r="E62" t="s">
-        <v>188</v>
-      </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G66" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" t="s">
         <v>192</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>193</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="H67" t="s">
         <v>195</v>
-      </c>
-      <c r="H67" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F68" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17778,10 +18337,10 @@
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F69" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17790,10 +18349,10 @@
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F70" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17802,7 +18361,7 @@
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="45">
         <v>6312</v>
@@ -17814,10 +18373,10 @@
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F72" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17826,10 +18385,10 @@
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F73" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17838,10 +18397,10 @@
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F74" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17850,10 +18409,10 @@
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F75" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17862,7 +18421,7 @@
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" t="str" cm="1">
         <f t="array" ref="E76">IFERROR(IF($D$12&lt;&gt;"",IF(INDEX([1]!KundenTabelle[Kindervornamen],$E$13,1)&lt;&gt;0,INDEX([1]!KundenTabelle[Kindervornamen],$E$13,1),$H$67),"n/a"),"n/v")</f>
@@ -17875,7 +18434,7 @@
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" t="str" cm="1">
         <f t="array" ref="E77">IFERROR(IF(D20&lt;&gt;"",IF(INDEX([1]!ProduktTabelle[Rechnungsbeschreibung],E21,1)&lt;&gt;0,INDEX([1]!ProduktTabelle[Rechnungsbeschreibung],E21,1),$H$67),"n/a"),"n/v")</f>
@@ -17888,7 +18447,7 @@
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E78" t="str" cm="1">
         <f t="array" ref="E78">IFERROR(IF(D20&lt;&gt;"",IF(INDEX([1]!ProduktTabelle[Beschreibung],E21,1)&lt;&gt;0,INDEX([1]!ProduktTabelle[Beschreibung],E21,1),$H$67),"n/a"),"n/v")</f>
@@ -17901,7 +18460,7 @@
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" t="str" cm="1">
         <f t="array" ref="E79">IFERROR(IF(D20&lt;&gt;"",IF(INDEX([1]!ProduktTabelle[Preisliste],E21,1)&lt;&gt;0,INDEX([1]!ProduktTabelle[Preisliste],E21,1),$H$67),"n/a"),"n/v")</f>
@@ -17914,7 +18473,7 @@
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E80" t="str">
         <f>IFERROR(D16,"n/v")</f>
@@ -17940,7 +18499,7 @@
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" s="45" cm="1">
         <f t="array" ref="E82">IFERROR(IF($D$16&lt;&gt;"",INDEX([1]!AuftragsTabelle[ES-Nummer],$E$17,1),"n/a"),"n/v")</f>
@@ -17953,10 +18512,10 @@
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F83" s="46" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -17965,7 +18524,7 @@
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E84" t="str">
         <f>IFERROR(IF($D$12&lt;&gt;"",IF(N12="x",H84,K84),"n/a"),"n/v")</f>
@@ -17976,21 +18535,21 @@
         <v>[--Schlusssatz--]</v>
       </c>
       <c r="G84" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H84" t="s">
         <v>205</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="J84" s="39" t="s">
+      <c r="K84" t="s">
         <v>207</v>
-      </c>
-      <c r="K84" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E85" s="47" t="s">
         <v>7</v>
@@ -18015,7 +18574,7 @@
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E87" t="str">
         <f>[1]SwissQRCode!A3</f>
@@ -18028,7 +18587,7 @@
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E88" t="str">
         <f>[1]SwissQRCode!A4</f>
@@ -18041,7 +18600,7 @@
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E89" t="str">
         <f>CONCATENATE(E71," ",E72)</f>
@@ -18054,7 +18613,7 @@
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E90" t="str">
         <f>CONCATENATE(E68," ",E69)</f>
@@ -18067,7 +18626,7 @@
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E91" t="str">
         <f>E70</f>
@@ -18080,7 +18639,7 @@
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E92" t="str">
         <f>CONCATENATE(E71," ",E72)</f>
@@ -18096,7 +18655,7 @@
         <v>41</v>
       </c>
       <c r="E93" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -18105,7 +18664,7 @@
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E94" t="str">
         <f>[1]SwissQRCode!A8</f>
@@ -18118,10 +18677,10 @@
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" t="s">
         <v>217</v>
-      </c>
-      <c r="E95" t="s">
-        <v>218</v>
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -18130,7 +18689,7 @@
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E96" t="str">
         <f>CONCATENATE(E80,"_",E75,"_",E90,".docx")</f>
@@ -18143,10 +18702,10 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F97" s="49" t="str">
         <f>CONCATENATE("[--",TabABBookmarks[[#This Row],[BookmarkName]],"--]")</f>
@@ -18171,7 +18730,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18383,7 +18942,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
         <v>78</v>
@@ -18394,28 +18953,28 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -18645,9 +19204,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C13067-15AF-4F78-98EF-8797820B2B84}">
-  <dimension ref="A2:I182"/>
+  <dimension ref="A2:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -18740,10 +19299,10 @@
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -18753,37 +19312,27 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -18793,77 +19342,67 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -18875,10 +19414,10 @@
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -18888,12 +19427,12 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -18903,37 +19442,27 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -18945,10 +19474,10 @@
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>35</v>
@@ -18960,7 +19489,7 @@
         <v>49</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>45</v>
@@ -18970,10 +19499,10 @@
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -18983,12 +19512,12 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -18998,37 +19527,27 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>335</v>
+        <v>416</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -19040,10 +19559,10 @@
     </row>
     <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>35</v>
@@ -19055,7 +19574,7 @@
         <v>49</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>45</v>
@@ -19063,12 +19582,12 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -19078,37 +19597,27 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -19118,12 +19627,12 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -19133,27 +19642,37 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -19163,37 +19682,27 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -19203,12 +19712,12 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -19218,52 +19727,52 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -19273,12 +19782,12 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -19288,12 +19797,12 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -19305,10 +19814,10 @@
     </row>
     <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>35</v>
@@ -19320,7 +19829,7 @@
         <v>49</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G51" s="22" t="s">
         <v>45</v>
@@ -19328,12 +19837,12 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -19343,12 +19852,12 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -19358,37 +19867,27 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -19398,52 +19897,52 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
     <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -19453,12 +19952,12 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -19470,10 +19969,10 @@
     </row>
     <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>35</v>
@@ -19485,7 +19984,7 @@
         <v>49</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>45</v>
@@ -19495,10 +19994,10 @@
     </row>
     <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -19508,9 +20007,12 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>385</v>
+      </c>
       <c r="B62" s="20" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -19520,31 +20022,27 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>384</v>
+      </c>
       <c r="B63" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>382</v>
+      </c>
       <c r="B64" s="20" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -19554,9 +20052,12 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="B65" s="20" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -19566,9 +20067,12 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>378</v>
+      </c>
       <c r="B66" s="20" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>35</v>
@@ -19580,7 +20084,7 @@
         <v>49</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>45</v>
@@ -19588,9 +20092,12 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>377</v>
+      </c>
       <c r="B67" s="20" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -19600,55 +20107,77 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>376</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>374</v>
+      </c>
       <c r="B69" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>373</v>
+      </c>
       <c r="B70" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>371</v>
+      </c>
       <c r="B71" s="20" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -19658,31 +20187,27 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>370</v>
+      </c>
       <c r="B72" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>369</v>
+      </c>
       <c r="B73" s="20" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -19692,55 +20217,77 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>368</v>
+      </c>
       <c r="B74" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>367</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>366</v>
+      </c>
       <c r="B76" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>364</v>
+      </c>
       <c r="B77" s="20" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -19750,43 +20297,52 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>363</v>
+      </c>
       <c r="B78" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>362</v>
+      </c>
       <c r="B79" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>361</v>
+      </c>
       <c r="B80" s="20" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -19796,9 +20352,12 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="B81" s="20" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>35</v>
@@ -19818,9 +20377,12 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="B82" s="20" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -19830,43 +20392,52 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>358</v>
+      </c>
       <c r="B83" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>357</v>
+      </c>
       <c r="B84" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>356</v>
+      </c>
       <c r="B85" s="20" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -19876,9 +20447,12 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>354</v>
+      </c>
       <c r="B86" s="20" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
@@ -19888,43 +20462,52 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>353</v>
+      </c>
       <c r="B87" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F87" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>353</v>
+      </c>
       <c r="B88" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>351</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
@@ -19934,31 +20517,27 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>349</v>
+      </c>
       <c r="B90" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F90" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="B91" s="20" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -19968,21 +20547,37 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="B92" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>346</v>
+      </c>
       <c r="B93" s="20" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -19992,31 +20587,27 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>344</v>
+      </c>
       <c r="B94" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>343</v>
+      </c>
       <c r="B95" s="20" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -20026,43 +20617,52 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>343</v>
+      </c>
       <c r="B96" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>341</v>
+      </c>
       <c r="B97" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F97" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>340</v>
+      </c>
       <c r="B98" s="20" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
@@ -20072,43 +20672,52 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>340</v>
+      </c>
       <c r="B99" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>338</v>
+      </c>
       <c r="B100" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F100" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G100" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>337</v>
+      </c>
       <c r="B101" s="20" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -20118,43 +20727,52 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>337</v>
+      </c>
       <c r="B102" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>335</v>
+      </c>
       <c r="B103" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="B104" s="20" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
@@ -20164,43 +20782,49 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="B105" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>330</v>
+      </c>
       <c r="B106" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F106" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
@@ -20210,43 +20834,43 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
+        <v>328</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B110" s="20" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -20256,43 +20880,43 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
+        <v>325</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
     <row r="113" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
@@ -20302,43 +20926,43 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
+        <v>322</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
     <row r="116" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
@@ -20348,21 +20972,31 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B117" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
+        <v>319</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
     <row r="118" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B118" s="20" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
@@ -20372,43 +21006,43 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B119" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
     </row>
-    <row r="120" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B120" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
+        <v>306</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
     </row>
-    <row r="121" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B121" s="20" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
@@ -20418,43 +21052,43 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
     </row>
-    <row r="122" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F122" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
     </row>
-    <row r="123" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B123" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
+        <v>303</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
     </row>
-    <row r="124" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B124" s="20" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
@@ -20466,7 +21100,7 @@
     </row>
     <row r="125" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B125" s="20" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
@@ -20478,7 +21112,7 @@
     </row>
     <row r="126" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B126" s="20" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>35</v>
@@ -20500,7 +21134,7 @@
     </row>
     <row r="127" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B127" s="20" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
@@ -20510,9 +21144,9 @@
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
     </row>
-    <row r="128" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B128" s="20" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
@@ -20522,43 +21156,43 @@
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
     </row>
-    <row r="129" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B129" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
+        <v>297</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
     </row>
-    <row r="130" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F130" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G130" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
     </row>
-    <row r="131" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B131" s="20" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
@@ -20568,43 +21202,43 @@
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
     </row>
-    <row r="132" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B132" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
+        <v>294</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
     </row>
-    <row r="133" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B133" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
     </row>
     <row r="134" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B134" s="20" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
@@ -20614,43 +21248,43 @@
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B135" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
+        <v>291</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
     </row>
-    <row r="136" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B136" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F136" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
     </row>
     <row r="137" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B137" s="20" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
@@ -20660,9 +21294,9 @@
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
     </row>
-    <row r="138" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B138" s="20" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
@@ -20674,7 +21308,7 @@
     </row>
     <row r="139" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B139" s="20" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>35</v>
@@ -20694,9 +21328,9 @@
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
     </row>
-    <row r="140" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B140" s="20" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
@@ -20706,31 +21340,21 @@
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
     </row>
-    <row r="141" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F141" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
     </row>
     <row r="142" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B142" s="20" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="C142" s="22" t="s">
         <v>35</v>
@@ -20750,87 +21374,67 @@
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
     </row>
-    <row r="143" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B143" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F143" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
     </row>
-    <row r="144" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B144" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F144" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G144" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
     </row>
-    <row r="145" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B145" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
+        <v>281</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
     </row>
-    <row r="146" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B146" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F146" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
     </row>
-    <row r="147" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B147" s="20" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -20840,21 +21444,31 @@
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
     </row>
-    <row r="148" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B148" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
+        <v>278</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
     </row>
-    <row r="149" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B149" s="20" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
@@ -20864,9 +21478,9 @@
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
     </row>
-    <row r="150" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B150" s="20" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
@@ -20876,21 +21490,31 @@
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
     </row>
-    <row r="151" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
+        <v>275</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
     </row>
-    <row r="152" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B152" s="20" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
@@ -20900,9 +21524,9 @@
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
     </row>
-    <row r="153" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="20" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
@@ -20914,7 +21538,7 @@
     </row>
     <row r="154" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B154" s="20" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>35</v>
@@ -20934,53 +21558,33 @@
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
     </row>
-    <row r="155" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B155" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F155" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
     </row>
-    <row r="156" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B156" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F156" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
     </row>
     <row r="157" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B157" s="20" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="C157" s="22" t="s">
         <v>35</v>
@@ -21000,53 +21604,33 @@
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
     </row>
-    <row r="158" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
     </row>
-    <row r="159" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B159" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E159" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F159" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
     </row>
     <row r="160" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B160" s="20" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="C160" s="22" t="s">
         <v>35</v>
@@ -21066,75 +21650,45 @@
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
     </row>
-    <row r="161" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B161" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G161" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
     </row>
-    <row r="162" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F162" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
     </row>
-    <row r="163" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B163" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D163" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F163" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G163" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B164" s="20" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="C164" s="22" t="s">
         <v>35</v>
@@ -21154,53 +21708,33 @@
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
     </row>
-    <row r="165" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B165" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F165" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G165" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
     </row>
-    <row r="166" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E166" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F166" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G166" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
     </row>
     <row r="167" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B167" s="20" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="C167" s="22" t="s">
         <v>35</v>
@@ -21220,75 +21754,45 @@
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
     </row>
-    <row r="168" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G168" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
     </row>
-    <row r="169" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
     </row>
-    <row r="170" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B170" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F170" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
     </row>
     <row r="171" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B171" s="20" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="C171" s="22" t="s">
         <v>35</v>
@@ -21300,7 +21804,7 @@
         <v>49</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G171" s="22" t="s">
         <v>45</v>
@@ -21308,75 +21812,45 @@
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
     </row>
-    <row r="172" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B172" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F172" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G172" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F173" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G173" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
     </row>
-    <row r="174" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B174" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G174" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
     </row>
     <row r="175" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B175" s="20" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="C175" s="22" t="s">
         <v>35</v>
@@ -21384,65 +21858,45 @@
       <c r="D175" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E175" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F175" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G175" s="21" t="s">
+      <c r="F175" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G175" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H175" s="21"/>
       <c r="I175" s="21"/>
     </row>
-    <row r="176" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B176" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E176" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F176" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G176" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
     </row>
-    <row r="177" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E177" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F177" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G177" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
     </row>
     <row r="178" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B178" s="20" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="C178" s="22" t="s">
         <v>35</v>
@@ -21450,49 +21904,45 @@
       <c r="D178" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E178" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F178" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G178" s="21" t="s">
+      <c r="E178" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F178" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G178" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
     </row>
-    <row r="179" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B179" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D179" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B180" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B181" s="20" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="C181" s="22" t="s">
         <v>35</v>
@@ -21500,14 +21950,878 @@
       <c r="D181" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
+      <c r="E181" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F181" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G181" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="19" t="s">
+    <row r="182" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B182" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
+    </row>
+    <row r="183" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B183" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+    </row>
+    <row r="184" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B184" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F184" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G184" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
+    </row>
+    <row r="185" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B185" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
+    </row>
+    <row r="186" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B186" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F186" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G186" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
+    </row>
+    <row r="187" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B187" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E187" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F187" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G187" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
+    </row>
+    <row r="188" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B188" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F188" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G188" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
+    </row>
+    <row r="189" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B189" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F189" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G189" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
+    </row>
+    <row r="190" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B190" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
+    </row>
+    <row r="191" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B191" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E191" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G191" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H191" s="21"/>
+      <c r="I191" s="21"/>
+    </row>
+    <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B192" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="21"/>
+    </row>
+    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B193" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="21"/>
+    </row>
+    <row r="194" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B194" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
+    </row>
+    <row r="195" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B195" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
+    </row>
+    <row r="196" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B196" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
+    </row>
+    <row r="197" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
+    </row>
+    <row r="198" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B198" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="21"/>
+    </row>
+    <row r="199" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B199" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F199" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G199" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
+    </row>
+    <row r="200" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B200" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F200" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G200" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
+    </row>
+    <row r="201" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B201" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F201" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G201" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+    </row>
+    <row r="202" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B202" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F202" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G202" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
+    </row>
+    <row r="203" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B203" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F203" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G203" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H203" s="21"/>
+      <c r="I203" s="21"/>
+    </row>
+    <row r="204" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B204" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E204" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F204" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G204" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
+    </row>
+    <row r="205" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B205" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F205" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G205" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
+    </row>
+    <row r="206" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B206" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F206" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G206" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
+    </row>
+    <row r="207" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B207" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G207" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+    </row>
+    <row r="208" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B208" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F208" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G208" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+    </row>
+    <row r="209" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B209" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+    </row>
+    <row r="210" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B210" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F210" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
+    </row>
+    <row r="211" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B211" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F211" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+    </row>
+    <row r="212" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B212" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F212" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
+    </row>
+    <row r="213" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B213" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G213" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+    </row>
+    <row r="214" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B214" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G214" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+    </row>
+    <row r="215" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B215" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G215" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+    </row>
+    <row r="216" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B216" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G216" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+    </row>
+    <row r="217" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B217" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E217" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+    </row>
+    <row r="218" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B218" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F218" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G218" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+    </row>
+    <row r="219" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B219" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G219" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+    </row>
+    <row r="220" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B220" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E220" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F220" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G220" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H220" s="21"/>
+      <c r="I220" s="21"/>
+    </row>
+    <row r="221" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B221" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E221" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
+    </row>
+    <row r="222" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B222" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E222" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H222" s="21"/>
+      <c r="I222" s="21"/>
+    </row>
+    <row r="223" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B223" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G223" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H223" s="21"/>
+      <c r="I223" s="21"/>
+    </row>
+    <row r="224" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B224" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D224" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+      <c r="I224" s="21"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+      <c r="I225" s="21"/>
+    </row>
+    <row r="226" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B226" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+      <c r="I226" s="21"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="19" t="s">
         <v>32</v>
       </c>
     </row>

--- a/fotoleuToolbox.xlsx
+++ b/fotoleuToolbox.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045730F-3E4B-4305-8771-C2AF2BFA1393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DF123B-74AB-4FE5-B13A-A2213E0F4509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwissQRCode (old)" sheetId="3" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="519">
   <si>
     <t>Empfangsschein</t>
   </si>
@@ -1457,6 +1457,258 @@
   </si>
   <si>
     <t>05.01.2021 15:08:01</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:05:56</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:09:47</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_603f2b49-9d4f-4d0e-ab1b-b698f1abfd15.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:09:49</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Ausnahme von HRESULT: 0x800A03EC</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:09:53</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:09:55</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:10:01</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_603f2b49-9d4f-4d0e-ab1b-b698f1abfd15.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:10:03</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:10:06</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_603f2b49-9d4f-4d0e-ab1b-b698f1abfd15.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_603f2b49-9d4f-4d0e-ab1b-b698f1abfd15.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:10:08</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Ausnahme von HRESULT: 0x800A03EC, strAddDebugInfo=</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:10:47</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:15</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_1b995821-f68f-4605-8f8a-5bef94849312.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:18</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:22</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:25</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:31</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_1b995821-f68f-4605-8f8a-5bef94849312.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:34</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:36</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_1b995821-f68f-4605-8f8a-5bef94849312.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_1b995821-f68f-4605-8f8a-5bef94849312.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:14:39</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Ausnahme von HRESULT: 0x800A03EC, strAddDebugInfo=AuftragID read! strAuftragID=AF1571</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:15:02</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:15:12</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:15:15</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:15:21</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:19:27</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_76343b8b-187b-4638-a500-9a5fe9768988.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:20:02</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:20:04</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:20:10</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_76343b8b-187b-4638-a500-9a5fe9768988.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:20:23</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_76343b8b-187b-4638-a500-9a5fe9768988.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_76343b8b-187b-4638-a500-9a5fe9768988.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:20:35</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:20:54</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:23:45</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_874a20ed-8ad3-4dd2-95fc-05c59dbfa789.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:23:56</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:23:59</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:24:04</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_874a20ed-8ad3-4dd2-95fc-05c59dbfa789.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:24:14</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_874a20ed-8ad3-4dd2-95fc-05c59dbfa789.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_874a20ed-8ad3-4dd2-95fc-05c59dbfa789.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:24:26</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:24:32</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:30:44</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 30 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz Rechnungs Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_1609904a-9a2e-4227-91d8-3ffd7be3759c.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:30:50</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:30:52</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:30:58</t>
+  </si>
+  <si>
+    <t>generateDocument: Document generated! 10 bookmarks replaced. Template=C:\Users\imfeldc\source\repos\SwissQRCodeExcel4\zz QR Code Test Vorlage - Automatisiert.docx, Filepath=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_1609904a-9a2e-4227-91d8-3ffd7be3759c.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:31:01</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc_AF1571_1609904a-9a2e-4227-91d8-3ffd7be3759c.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc_AF1571_1609904a-9a2e-4227-91d8-3ffd7be3759c.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:31:09</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:31:16</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:35:49</t>
+  </si>
+  <si>
+    <t>generateDocument: Document 'C:\Meine Daten\OneDrive\_Dokumente\Auftragsblätter\Aufnahme mit Kindern - Automatisiert.docx' doesn't exists</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:35:51</t>
+  </si>
+  <si>
+    <t>generateQRCode: Exception=Der string-Typ kann nicht in decimal konvertiert werden.</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:35:55</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc__78f885ed-e7ed-4736-8a34-9b08e6433da3.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc__78f885ed-e7ed-4736-8a34-9b08e6433da3.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:36:00</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\1stDoc__78f885ed-e7ed-4736-8a3...), strAddDebugInfo=Word Application created!</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:37:19</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:37:21</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:37:25</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc__01b5d5d2-6ea3-4fcc-aa88-4f86f51cd79b.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc__01b5d5d2-6ea3-4fcc-aa88-4f86f51cd79b.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:37:30</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\1stDoc__01b5d5d2-6ea3-4fcc-aa8...), strAddDebugInfo=Word Application created!</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:39:49</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:39:54</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:39:58</t>
+  </si>
+  <si>
+    <t>generateDocument: The two single files have been created! File1=C:\Users\imfeldc\AppData\Local\Temp\1stDoc__3a828e6f-2de4-4c6d-8f71-c52dddbe6060.docx, File2=C:\Users\imfeldc\AppData\Local\Temp\2ndDoc__3a828e6f-2de4-4c6d-8f71-c52dddbe6060.docx</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:40:03</t>
+  </si>
+  <si>
+    <t>generateDocument: Exception=Sorry, we couldn't find your file. Was it moved, renamed, or deleted?_x000D_ (C:\...\1stDoc__3a828e6f-2de4-4c6d-8f7...), strAddDebugInfo=Word Application created!</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:40:20</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:41:09</t>
+  </si>
+  <si>
+    <t>05.01.2021 16:41:39</t>
   </si>
 </sst>
 </file>
@@ -3435,6 +3687,306 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D18073D-64D4-408E-95C2-DCB4AA298529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE51A7B-C9EA-4C01-A08D-53B7F1322DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7C5C57-A3D0-4368-96FC-D2CFF544053A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29EB30A-BAB6-4553-B6FE-09ABE512EE25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18674D4E-6DFD-4B43-871A-8C7B016AB95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1307EDC-D691-46E7-9401-588FBABF0836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="254000"/>
+          <a:ext cx="2794000" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17672,8 +18224,8 @@
   </sheetPr>
   <dimension ref="B2:N97"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19204,16 +19756,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C13067-15AF-4F78-98EF-8797820B2B84}">
-  <dimension ref="A2:I227"/>
+  <dimension ref="A2:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68" style="18" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="18" customWidth="1"/>
     <col min="4" max="7" width="31.140625" customWidth="1"/>
   </cols>
@@ -19297,12 +19849,12 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -19312,12 +19864,12 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>425</v>
+        <v>497</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -19327,12 +19879,12 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -19342,12 +19894,12 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -19357,37 +19909,27 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>387</v>
+        <v>499</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -19397,12 +19939,12 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -19412,12 +19954,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -19427,12 +19969,12 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -19442,12 +19984,12 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -19457,12 +19999,12 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -19472,37 +20014,27 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>418</v>
+        <v>502</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>387</v>
+        <v>501</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -19512,12 +20044,12 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>419</v>
+        <v>499</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -19527,12 +20059,12 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>417</v>
+        <v>496</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>396</v>
+        <v>497</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -19542,12 +20074,12 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -19557,37 +20089,27 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>387</v>
+        <v>493</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -19597,12 +20119,12 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>413</v>
+        <v>490</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -19612,27 +20134,37 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>411</v>
+        <v>488</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -19642,37 +20174,27 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>410</v>
+        <v>485</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -19682,12 +20204,12 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -19697,12 +20219,12 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>406</v>
+        <v>482</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -19712,12 +20234,12 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -19729,7 +20251,7 @@
     </row>
     <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>389</v>
@@ -19752,9 +20274,9 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>387</v>
@@ -19767,12 +20289,12 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -19782,12 +20304,12 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -19797,12 +20319,12 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -19812,37 +20334,27 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -19852,27 +20364,37 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -19882,12 +20404,12 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -19897,52 +20419,52 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -19954,10 +20476,10 @@
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -19967,37 +20489,27 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
     <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>386</v>
+        <v>458</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -20009,10 +20521,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -20022,12 +20534,12 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -20037,27 +20549,37 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -20067,37 +20589,27 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -20107,37 +20619,27 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -20147,37 +20649,27 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -20187,12 +20679,12 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -20202,52 +20694,52 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -20257,37 +20749,27 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
     <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -20299,10 +20781,10 @@
     </row>
     <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>334</v>
+        <v>427</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -20312,37 +20794,27 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>334</v>
+        <v>432</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -20352,77 +20824,67 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>331</v>
+        <v>429</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -20432,12 +20894,12 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -20447,12 +20909,12 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
@@ -20462,12 +20924,12 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
@@ -20477,52 +20939,52 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -20532,12 +20994,12 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>334</v>
+        <v>419</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -20547,37 +21009,27 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -20587,27 +21039,37 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
     <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -20617,37 +21079,27 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -20657,12 +21109,12 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
@@ -20674,10 +21126,10 @@
     </row>
     <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>35</v>
@@ -20689,7 +21141,7 @@
         <v>49</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>45</v>
@@ -20697,12 +21149,12 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
@@ -20712,12 +21164,12 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -20727,37 +21179,27 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>336</v>
+        <v>407</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -20767,52 +21209,52 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
@@ -20822,9 +21264,12 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>402</v>
+      </c>
       <c r="B107" s="20" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
@@ -20834,43 +21279,52 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>400</v>
+      </c>
       <c r="B108" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>399</v>
+      </c>
       <c r="B109" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>399</v>
+      </c>
       <c r="B110" s="20" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -20880,31 +21334,27 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>397</v>
+      </c>
       <c r="B111" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>394</v>
+      </c>
       <c r="B112" s="20" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
@@ -20914,9 +21364,12 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>394</v>
+      </c>
       <c r="B113" s="20" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
@@ -20926,9 +21379,12 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>393</v>
+      </c>
       <c r="B114" s="20" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>35</v>
@@ -20940,7 +21396,7 @@
         <v>49</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>45</v>
@@ -20948,9 +21404,12 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>393</v>
+      </c>
       <c r="B115" s="20" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
@@ -20960,9 +21419,12 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>391</v>
+      </c>
       <c r="B116" s="20" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
@@ -20972,43 +21434,52 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>390</v>
+      </c>
       <c r="B117" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F117" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>388</v>
+      </c>
       <c r="B118" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>386</v>
+      </c>
       <c r="B119" s="20" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
@@ -21018,31 +21489,27 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
     </row>
-    <row r="120" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>385</v>
+      </c>
       <c r="B120" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G120" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
     </row>
-    <row r="121" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>384</v>
+      </c>
       <c r="B121" s="20" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
@@ -21052,9 +21519,12 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
     </row>
-    <row r="122" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>382</v>
+      </c>
       <c r="B122" s="20" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
@@ -21064,43 +21534,52 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
     </row>
-    <row r="123" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="B123" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F123" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
     </row>
-    <row r="124" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>378</v>
+      </c>
       <c r="B124" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
     </row>
-    <row r="125" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>377</v>
+      </c>
       <c r="B125" s="20" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
@@ -21110,9 +21589,12 @@
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
     </row>
-    <row r="126" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>376</v>
+      </c>
       <c r="B126" s="20" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C126" s="22" t="s">
         <v>35</v>
@@ -21132,9 +21614,12 @@
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
     </row>
-    <row r="127" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>374</v>
+      </c>
       <c r="B127" s="20" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
@@ -21144,43 +21629,52 @@
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
     </row>
-    <row r="128" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>373</v>
+      </c>
       <c r="B128" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
     </row>
-    <row r="129" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>371</v>
+      </c>
       <c r="B129" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F129" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
     </row>
-    <row r="130" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>370</v>
+      </c>
       <c r="B130" s="20" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
@@ -21190,9 +21684,12 @@
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
     </row>
-    <row r="131" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>369</v>
+      </c>
       <c r="B131" s="20" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
@@ -21202,9 +21699,12 @@
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
     </row>
-    <row r="132" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>368</v>
+      </c>
       <c r="B132" s="20" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C132" s="22" t="s">
         <v>35</v>
@@ -21224,9 +21724,12 @@
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
     </row>
-    <row r="133" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>367</v>
+      </c>
       <c r="B133" s="20" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
@@ -21236,43 +21739,52 @@
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
     </row>
-    <row r="134" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>366</v>
+      </c>
       <c r="B134" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>364</v>
+      </c>
       <c r="B135" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F135" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
     </row>
-    <row r="136" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>363</v>
+      </c>
       <c r="B136" s="20" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
@@ -21282,21 +21794,37 @@
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
     </row>
-    <row r="137" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>362</v>
+      </c>
       <c r="B137" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
     </row>
-    <row r="138" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>361</v>
+      </c>
       <c r="B138" s="20" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
@@ -21306,9 +21834,12 @@
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
     </row>
-    <row r="139" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A139" s="21" t="s">
+        <v>360</v>
+      </c>
       <c r="B139" s="20" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="C139" s="22" t="s">
         <v>35</v>
@@ -21328,9 +21859,12 @@
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
     </row>
-    <row r="140" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="B140" s="20" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
@@ -21340,43 +21874,52 @@
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
     </row>
-    <row r="141" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>358</v>
+      </c>
       <c r="B141" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
     </row>
-    <row r="142" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>357</v>
+      </c>
       <c r="B142" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F142" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
     </row>
-    <row r="143" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>356</v>
+      </c>
       <c r="B143" s="20" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
@@ -21386,9 +21929,12 @@
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
     </row>
-    <row r="144" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>354</v>
+      </c>
       <c r="B144" s="20" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
@@ -21398,43 +21944,52 @@
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
     </row>
-    <row r="145" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>353</v>
+      </c>
       <c r="B145" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F145" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
     </row>
-    <row r="146" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>353</v>
+      </c>
       <c r="B146" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
     </row>
-    <row r="147" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>351</v>
+      </c>
       <c r="B147" s="20" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -21444,31 +21999,27 @@
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
     </row>
-    <row r="148" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>349</v>
+      </c>
       <c r="B148" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C148" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F148" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
     </row>
-    <row r="149" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="B149" s="20" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
@@ -21478,43 +22029,52 @@
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
     </row>
-    <row r="150" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="B150" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
     </row>
-    <row r="151" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>346</v>
+      </c>
       <c r="B151" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F151" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
     </row>
-    <row r="152" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>344</v>
+      </c>
       <c r="B152" s="20" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
@@ -21524,9 +22084,12 @@
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
     </row>
-    <row r="153" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>343</v>
+      </c>
       <c r="B153" s="20" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
@@ -21536,9 +22099,12 @@
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
     </row>
-    <row r="154" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>343</v>
+      </c>
       <c r="B154" s="20" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>35</v>
@@ -21558,9 +22124,12 @@
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
     </row>
-    <row r="155" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>341</v>
+      </c>
       <c r="B155" s="20" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
@@ -21570,9 +22139,12 @@
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
     </row>
-    <row r="156" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>340</v>
+      </c>
       <c r="B156" s="20" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
@@ -21582,9 +22154,12 @@
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
     </row>
-    <row r="157" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>340</v>
+      </c>
       <c r="B157" s="20" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="C157" s="22" t="s">
         <v>35</v>
@@ -21604,9 +22179,12 @@
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
     </row>
-    <row r="158" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="s">
+        <v>338</v>
+      </c>
       <c r="B158" s="20" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
@@ -21616,9 +22194,12 @@
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
     </row>
-    <row r="159" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
+        <v>337</v>
+      </c>
       <c r="B159" s="20" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
@@ -21628,9 +22209,12 @@
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
     </row>
-    <row r="160" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A160" s="21" t="s">
+        <v>337</v>
+      </c>
       <c r="B160" s="20" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="C160" s="22" t="s">
         <v>35</v>
@@ -21650,9 +22234,12 @@
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
     </row>
-    <row r="161" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="s">
+        <v>335</v>
+      </c>
       <c r="B161" s="20" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="C161" s="22"/>
       <c r="D161" s="22"/>
@@ -21662,9 +22249,12 @@
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
     </row>
-    <row r="162" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="B162" s="20" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="C162" s="22"/>
       <c r="D162" s="22"/>
@@ -21674,43 +22264,49 @@
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
     </row>
-    <row r="163" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
+        <v>332</v>
+      </c>
       <c r="B163" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
     </row>
-    <row r="164" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="s">
+        <v>330</v>
+      </c>
       <c r="B164" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E164" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F164" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G164" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
     </row>
-    <row r="165" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B165" s="20" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
@@ -21720,43 +22316,43 @@
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
     </row>
-    <row r="166" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
+        <v>328</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F166" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
     </row>
-    <row r="167" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B167" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F167" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G167" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
     </row>
-    <row r="168" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B168" s="20" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="C168" s="22"/>
       <c r="D168" s="22"/>
@@ -21766,21 +22362,31 @@
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
     </row>
-    <row r="169" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B169" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="22"/>
+        <v>325</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G169" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
     </row>
-    <row r="170" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B170" s="20" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
@@ -21790,43 +22396,43 @@
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
     </row>
-    <row r="171" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B171" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C171" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E171" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F171" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
     </row>
-    <row r="172" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B172" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
+        <v>322</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G172" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" s="20" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="C173" s="22"/>
       <c r="D173" s="22"/>
@@ -21836,9 +22442,9 @@
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
     </row>
-    <row r="174" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B174" s="20" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="22"/>
@@ -21848,9 +22454,9 @@
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
     </row>
-    <row r="175" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B175" s="20" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="C175" s="22" t="s">
         <v>35</v>
@@ -21870,9 +22476,9 @@
       <c r="H175" s="21"/>
       <c r="I175" s="21"/>
     </row>
-    <row r="176" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="20" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="22"/>
@@ -21882,9 +22488,9 @@
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
     </row>
-    <row r="177" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B177" s="20" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="22"/>
@@ -21896,7 +22502,7 @@
     </row>
     <row r="178" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B178" s="20" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="C178" s="22" t="s">
         <v>35</v>
@@ -21918,7 +22524,7 @@
     </row>
     <row r="179" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B179" s="20" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="22"/>
@@ -21928,9 +22534,9 @@
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
     </row>
-    <row r="180" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B180" s="20" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="22"/>
@@ -21942,7 +22548,7 @@
     </row>
     <row r="181" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B181" s="20" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="C181" s="22" t="s">
         <v>35</v>
@@ -21962,9 +22568,9 @@
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
     </row>
-    <row r="182" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B182" s="20" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="22"/>
@@ -21974,9 +22580,9 @@
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
     </row>
-    <row r="183" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B183" s="20" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
@@ -21988,7 +22594,7 @@
     </row>
     <row r="184" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B184" s="20" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="C184" s="22" t="s">
         <v>35</v>
@@ -22008,9 +22614,9 @@
       <c r="H184" s="21"/>
       <c r="I184" s="21"/>
     </row>
-    <row r="185" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B185" s="20" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="22"/>
@@ -22020,31 +22626,21 @@
       <c r="H185" s="21"/>
       <c r="I185" s="21"/>
     </row>
-    <row r="186" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B186" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F186" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G186" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
       <c r="H186" s="21"/>
       <c r="I186" s="21"/>
     </row>
     <row r="187" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B187" s="20" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="C187" s="22" t="s">
         <v>35</v>
@@ -22064,87 +22660,67 @@
       <c r="H187" s="21"/>
       <c r="I187" s="21"/>
     </row>
-    <row r="188" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D188" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E188" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F188" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G188" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
     </row>
-    <row r="189" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C189" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D189" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E189" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F189" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G189" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
       <c r="H189" s="21"/>
       <c r="I189" s="21"/>
     </row>
-    <row r="190" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B190" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="22"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="22"/>
+        <v>294</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F190" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G190" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
     </row>
-    <row r="191" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B191" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D191" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E191" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F191" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G191" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
     </row>
-    <row r="192" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="20" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
@@ -22154,21 +22730,31 @@
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
     </row>
-    <row r="193" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B193" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="22"/>
+        <v>291</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G193" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
     </row>
-    <row r="194" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B194" s="20" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
@@ -22178,9 +22764,9 @@
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
     </row>
-    <row r="195" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="20" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
@@ -22190,9 +22776,9 @@
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
     </row>
-    <row r="196" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B196" s="20" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
@@ -22202,21 +22788,31 @@
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
     </row>
-    <row r="197" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B197" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="22"/>
+        <v>287</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G197" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H197" s="21"/>
       <c r="I197" s="21"/>
     </row>
-    <row r="198" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B198" s="20" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
@@ -22226,31 +22822,21 @@
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
     </row>
-    <row r="199" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B199" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E199" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F199" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G199" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
       <c r="H199" s="21"/>
       <c r="I199" s="21"/>
     </row>
     <row r="200" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B200" s="20" t="s">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c r="C200" s="22" t="s">
         <v>35</v>
@@ -22270,53 +22856,33 @@
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
     </row>
-    <row r="201" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E201" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F201" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G201" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
       <c r="H201" s="21"/>
       <c r="I201" s="21"/>
     </row>
-    <row r="202" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B202" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E202" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F202" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G202" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
       <c r="H202" s="21"/>
       <c r="I202" s="21"/>
     </row>
     <row r="203" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B203" s="20" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="C203" s="22" t="s">
         <v>35</v>
@@ -22336,53 +22902,33 @@
       <c r="H203" s="21"/>
       <c r="I203" s="21"/>
     </row>
-    <row r="204" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B204" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D204" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E204" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F204" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G204" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
       <c r="H204" s="21"/>
       <c r="I204" s="21"/>
     </row>
-    <row r="205" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B205" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D205" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E205" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F205" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G205" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
       <c r="H205" s="21"/>
       <c r="I205" s="21"/>
     </row>
     <row r="206" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B206" s="20" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="C206" s="22" t="s">
         <v>35</v>
@@ -22402,53 +22948,33 @@
       <c r="H206" s="21"/>
       <c r="I206" s="21"/>
     </row>
-    <row r="207" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B207" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E207" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F207" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G207" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
       <c r="H207" s="21"/>
       <c r="I207" s="21"/>
     </row>
-    <row r="208" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B208" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E208" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F208" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G208" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
     </row>
     <row r="209" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B209" s="20" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="C209" s="22" t="s">
         <v>35</v>
@@ -22468,53 +22994,33 @@
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
     </row>
-    <row r="210" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B210" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E210" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F210" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G210" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
       <c r="H210" s="21"/>
       <c r="I210" s="21"/>
     </row>
-    <row r="211" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B211" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D211" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E211" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F211" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G211" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
     </row>
     <row r="212" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B212" s="20" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="C212" s="22" t="s">
         <v>35</v>
@@ -22534,53 +23040,33 @@
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
     </row>
-    <row r="213" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B213" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E213" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F213" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G213" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
       <c r="H213" s="21"/>
       <c r="I213" s="21"/>
     </row>
-    <row r="214" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E214" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F214" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G214" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
     </row>
     <row r="215" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B215" s="20" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>35</v>
@@ -22592,7 +23078,7 @@
         <v>49</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G215" s="22" t="s">
         <v>45</v>
@@ -22600,53 +23086,33 @@
       <c r="H215" s="21"/>
       <c r="I215" s="21"/>
     </row>
-    <row r="216" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B216" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C216" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E216" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F216" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G216" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
       <c r="H216" s="21"/>
       <c r="I216" s="21"/>
     </row>
-    <row r="217" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B217" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C217" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D217" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E217" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F217" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G217" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
       <c r="H217" s="21"/>
       <c r="I217" s="21"/>
     </row>
     <row r="218" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B218" s="20" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>35</v>
@@ -22654,87 +23120,57 @@
       <c r="D218" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E218" s="21" t="s">
+      <c r="E218" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F218" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G218" s="21" t="s">
+      <c r="F218" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G218" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H218" s="21"/>
       <c r="I218" s="21"/>
     </row>
-    <row r="219" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B219" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D219" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E219" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F219" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G219" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
       <c r="H219" s="21"/>
       <c r="I219" s="21"/>
     </row>
-    <row r="220" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E220" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F220" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G220" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
       <c r="H220" s="21"/>
       <c r="I220" s="21"/>
     </row>
-    <row r="221" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B221" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E221" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F221" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G221" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
       <c r="H221" s="21"/>
       <c r="I221" s="21"/>
     </row>
     <row r="222" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B222" s="20" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>35</v>
@@ -22742,86 +23178,1132 @@
       <c r="D222" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E222" s="21" t="s">
+      <c r="E222" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F222" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G222" s="21" t="s">
+      <c r="F222" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G222" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H222" s="21"/>
       <c r="I222" s="21"/>
     </row>
-    <row r="223" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B223" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E223" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F223" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G223" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
       <c r="H223" s="21"/>
       <c r="I223" s="21"/>
     </row>
-    <row r="224" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B224" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C224" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D224" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E224" s="21"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
       <c r="H224" s="21"/>
       <c r="I224" s="21"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B225" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F225" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G225" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="H225" s="21"/>
       <c r="I225" s="21"/>
     </row>
-    <row r="226" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B226" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D226" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
+        <v>258</v>
+      </c>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
       <c r="H226" s="21"/>
       <c r="I226" s="21"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="21"/>
+      <c r="I227" s="21"/>
+    </row>
+    <row r="228" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B228" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="21"/>
+    </row>
+    <row r="229" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B229" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E229" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F229" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G229" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
+    </row>
+    <row r="230" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B230" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="22"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="21"/>
+    </row>
+    <row r="232" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B232" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="21"/>
+    </row>
+    <row r="233" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B233" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F233" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G233" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H233" s="21"/>
+      <c r="I233" s="21"/>
+    </row>
+    <row r="234" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B234" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
+    </row>
+    <row r="235" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B235" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+    </row>
+    <row r="236" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B236" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F236" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H236" s="21"/>
+      <c r="I236" s="21"/>
+    </row>
+    <row r="237" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B237" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="21"/>
+      <c r="I237" s="21"/>
+    </row>
+    <row r="238" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B238" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="21"/>
+    </row>
+    <row r="239" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B239" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E239" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F239" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G239" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+    </row>
+    <row r="240" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B240" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="21"/>
+    </row>
+    <row r="241" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B241" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="21"/>
+      <c r="I241" s="21"/>
+    </row>
+    <row r="242" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B242" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D242" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E242" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F242" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G242" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H242" s="21"/>
+      <c r="I242" s="21"/>
+    </row>
+    <row r="243" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B243" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="22"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+    </row>
+    <row r="244" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B244" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E244" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F244" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G244" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+    </row>
+    <row r="245" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B245" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D245" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E245" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F245" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G245" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+    </row>
+    <row r="246" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B246" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D246" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E246" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F246" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G246" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
+    </row>
+    <row r="247" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B247" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E247" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F247" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G247" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+    </row>
+    <row r="248" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B248" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="22"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+    </row>
+    <row r="249" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B249" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F249" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G249" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+    </row>
+    <row r="250" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B250" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="22"/>
+      <c r="G250" s="22"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="21"/>
+    </row>
+    <row r="251" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B251" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+    </row>
+    <row r="252" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B252" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C252" s="22"/>
+      <c r="D252" s="22"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+    </row>
+    <row r="253" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B253" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+    </row>
+    <row r="254" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B254" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="21"/>
+    </row>
+    <row r="255" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B255" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+    </row>
+    <row r="256" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B256" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="21"/>
+    </row>
+    <row r="257" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B257" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E257" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F257" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G257" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+    </row>
+    <row r="258" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B258" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F258" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G258" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H258" s="21"/>
+      <c r="I258" s="21"/>
+    </row>
+    <row r="259" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B259" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F259" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G259" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+    </row>
+    <row r="260" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B260" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F260" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G260" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+    </row>
+    <row r="261" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B261" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E261" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F261" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G261" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261" s="21"/>
+      <c r="I261" s="21"/>
+    </row>
+    <row r="262" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B262" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G262" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+    </row>
+    <row r="263" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B263" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F263" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G263" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+    </row>
+    <row r="264" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B264" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E264" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F264" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G264" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H264" s="21"/>
+      <c r="I264" s="21"/>
+    </row>
+    <row r="265" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B265" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E265" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F265" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G265" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H265" s="21"/>
+      <c r="I265" s="21"/>
+    </row>
+    <row r="266" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B266" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E266" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F266" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G266" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+    </row>
+    <row r="267" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B267" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E267" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F267" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G267" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H267" s="21"/>
+      <c r="I267" s="21"/>
+    </row>
+    <row r="268" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B268" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E268" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F268" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G268" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+    </row>
+    <row r="269" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B269" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E269" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F269" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G269" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H269" s="21"/>
+      <c r="I269" s="21"/>
+    </row>
+    <row r="270" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B270" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E270" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F270" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G270" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H270" s="21"/>
+      <c r="I270" s="21"/>
+    </row>
+    <row r="271" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B271" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D271" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E271" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F271" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G271" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H271" s="21"/>
+      <c r="I271" s="21"/>
+    </row>
+    <row r="272" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B272" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E272" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F272" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G272" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H272" s="21"/>
+      <c r="I272" s="21"/>
+    </row>
+    <row r="273" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B273" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D273" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E273" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F273" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G273" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+    </row>
+    <row r="274" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B274" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D274" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E274" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F274" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G274" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+    </row>
+    <row r="275" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B275" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E275" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G275" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H275" s="21"/>
+      <c r="I275" s="21"/>
+    </row>
+    <row r="276" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B276" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E276" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F276" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G276" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H276" s="21"/>
+      <c r="I276" s="21"/>
+    </row>
+    <row r="277" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B277" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D277" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E277" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G277" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H277" s="21"/>
+      <c r="I277" s="21"/>
+    </row>
+    <row r="278" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B278" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D278" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E278" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G278" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H278" s="21"/>
+      <c r="I278" s="21"/>
+    </row>
+    <row r="279" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B279" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E279" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G279" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H279" s="21"/>
+      <c r="I279" s="21"/>
+    </row>
+    <row r="280" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B280" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D280" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E280" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F280" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G280" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H280" s="21"/>
+      <c r="I280" s="21"/>
+    </row>
+    <row r="281" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B281" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D281" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E281" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G281" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+    </row>
+    <row r="282" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B282" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E282" s="21"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21"/>
+      <c r="I282" s="21"/>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
+      <c r="H283" s="21"/>
+      <c r="I283" s="21"/>
+    </row>
+    <row r="284" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B284" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B285" s="19" t="s">
         <v>32</v>
       </c>
     </row>
